--- a/Formula/Excel IP Formulas Blank Workbook.xlsx
+++ b/Formula/Excel IP Formulas Blank Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngrisonw/Dropbox/Work/Networking/Excel IP Functions/Excel IP Formulas v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngrisonw/Dropbox/Work/Networking/Excel IP Functions/Excel IP Formulas v1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA065C6-5160-1547-BBB9-1A2CDA75FC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD1B717-A9D4-4D47-8DCD-FEBFDF10735B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="8920" windowWidth="27240" windowHeight="16440" xr2:uid="{2504265F-FF40-4B41-9905-DD312394FC55}"/>
+    <workbookView xWindow="920" yWindow="1680" windowWidth="27240" windowHeight="16440" xr2:uid="{2504265F-FF40-4B41-9905-DD312394FC55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,8 @@
     <definedName name="ip.BITNOT" comment="Perform a bitwise NOT on a decimal number._x000a_ipdec: a quad dotted decimal ip address (i.e. &quot;192.168.0.1&quot;)_x000a_bits: the number of bits to perform the BITWISE on_x000a_```_x000a__dot2dec(&quot;192.168.0.1&quot;) ==&gt; 3232235521_x000a_```">_xlfn.LAMBDA(_xlpm.ipdec,_xlpm.bits, _xlfn.BITXOR(_xlfn.BITLSHIFT(1, _xlpm.bits) - 1, _xlpm.ipdec))</definedName>
     <definedName name="ip.broadcast_address" comment="Returns the broadcast addres of a subnet._x000a__x000a_ip_interfaces: a Cell, String, Range or Array containing ip interfaces_x000a_in &quot;ip/prefix&quot; format._x000a_```_x000a_broadcast(&quot;192.168.0.1/24&quot;) ==&gt; &quot;192.168.0.255&quot;_x000a_```">_xlfn.LAMBDA(_xlpm.cells,_xlop.exclude_prefix_length, _xlfn.LET(_xlpm.ipdec, ip._dot2dec(ip.ip(_xlpm.cells)), _xlpm.pfx, ip.prefixlen(_xlpm.cells), _xlpm.pfxdec, ip._pfx2dec(_xlpm.pfx), ip._dec2dot(ip._last_address(_xlpm.ipdec, _xlpm.pfxdec)) &amp; IF(_xlpm.exclude_prefix_length, "", "/" &amp; _xlpm.pfx)))</definedName>
     <definedName name="ip.checked" comment="Returns the checked ip properly formatted or NA if the ip is invalid._x000a__x000a_ip_interfaces: a Cell, String, Range or Array containing ip interfaces_x000a_in &quot;ip&quot; or &quot;ip/prefix&quot; format._x000a_```_x000a_checked(&quot;10.00.0.00/8&quot;) ==&gt; &quot;10.0.0.0/8&quot;_x000a_```">_xlfn.LAMBDA(_xlpm.ip_interfaces, _xlfn.LET(_xlpm.is_net, ISNUMBER(SEARCH("/", _xlpm.ip_interfaces)), _xlpm.ipdec, IF(_xlpm.is_net, ip._dot2dec(_xlfn.TEXTBEFORE(_xlpm.ip_interfaces, "/")), ip._dot2dec(_xlpm.ip_interfaces)), _xlpm.pfxdec, ip._pfx2dec(VALUE(_xlfn.TEXTAFTER(_xlpm.ip_interfaces, "/"))), ip._dec2dot(_xlpm.ipdec) &amp; IF(_xlpm.is_net, "/" &amp; ip._dec2pfx(_xlpm.pfxdec), "")))</definedName>
+    <definedName name="ip.filter_exclude">_xlfn.LAMBDA(_xlpm.ip_interfaces,_xlpm.supernet, _xlfn._xlws.FILTER(_xlpm.ip_interfaces, ip.subnet_of(_xlpm.ip_interfaces, _xlpm.supernet) = FALSE))</definedName>
+    <definedName name="ip.filter_include" comment="Returns a filtered list of ip addresses/interfaces that are included in_x000a_or excluded of a supernet._x000a__x000a_ip_interfaces: a Range or Array containing ip interfaces_x000a_in &quot;ip&quot; or &quot;ip/prefix&quot; format._x000a_supernet: an ip network in &quot;ip&quot; or &quot;ip/prefix&quot; format._x000a_```_x000a_filter_i">_xlfn.LAMBDA(_xlpm.ip_interfaces,_xlpm.supernet, _xlfn._xlws.FILTER(_xlpm.ip_interfaces, ip.subnet_of(_xlpm.ip_interfaces, _xlpm.supernet) = TRUE))</definedName>
     <definedName name="ip.first_host_address" comment="Returns the first host addres of a subnet._x000a__x000a_ip_interfaces: a Cell, String, Range or Array containing ip interfaces_x000a_in &quot;ip/prefix&quot; format._x000a_[omit_prefixlen]: Optional, do not include the prefix length_x000a_in the response if the input is a network_x000a_```_x000a_firsthost(">_xlfn.LAMBDA(_xlpm.cells,_xlop.omit_prefixlen, _xlfn.LET(_xlpm.is_net, ISNUMBER(SEARCH("/", _xlpm.cells)), _xlpm.ipdec, IF(_xlpm.is_net, ip._dot2dec(_xlfn.TEXTBEFORE(_xlpm.cells, "/")), ip._dot2dec(_xlpm.cells)), _xlpm.pfx, ip.prefixlen(_xlpm.cells), _xlpm.pfxdec, ip._pfx2dec(_xlpm.pfx), ip._dec2dot(ip._firsthost(_xlpm.ipdec, _xlpm.pfxdec)) &amp; IF(_xlpm.omit_prefixlen + NOT(_xlpm.is_net), "", "/" &amp; ip._dec2pfx(_xlpm.pfxdec))))</definedName>
     <definedName name="ip.from_classful" comment="Returns ip addresses with no prefix length with the correct classful prefix length._x000a_If the address is followed by a prefix length, that interface is returned checked but_x000a_unchanged._x000a_If no prefix length is provided, the default subnet mask for the address c">_xlfn.LAMBDA(_xlpm.ip_interfaces, _xlfn.LET(_xlpm.is_net, ISNUMBER(SEARCH("/", _xlpm.ip_interfaces)), _xlpm.ipdec, IF(_xlpm.is_net, ip._dot2dec(_xlfn.TEXTBEFORE(_xlpm.ip_interfaces, "/")), ip._dot2dec(_xlpm.ip_interfaces)), _xlpm.pfxdec, ip._pfx2dec(VALUE(_xlfn.TEXTAFTER(_xlpm.ip_interfaces, "/"))), IF(_xlpm.is_net, ip._dec2dot(_xlpm.ipdec) &amp; "/" &amp; ip._dec2pfx(_xlpm.pfxdec), _xlfn.IFS(_xlpm.ipdec &lt; VALUE("2147483648"), ip._dec2dot(_xlpm.ipdec) &amp; "/8", _xlpm.ipdec &lt; VALUE("3221225472"), ip._dec2dot(_xlpm.ipdec) &amp; "/16", _xlpm.ipdec &lt; VALUE("3758096384"), ip._dec2dot(_xlpm.ipdec) &amp; "/24", _xlpm.ipdec &gt;= VALUE("3758096384"), NA()))))</definedName>
     <definedName name="ip.from_hostmask">_xlfn.LAMBDA(_xlpm.cells,_xlop.sep, _xlfn.LET(_xlpm.sep, IF(_xlfn.ISOMITTED(_xlpm.sep), "/", _xlpm.sep), _xlpm.ip_string, _xlfn.TEXTBEFORE(_xlpm.cells, _xlpm.sep), _xlpm.hostmask, _xlfn.TEXTAFTER(_xlpm.cells, _xlpm.sep), _xlpm.ip_string &amp; "/" &amp; ip._bin2pfx(ip._dec2bin(ip.BITNOT(ip._dot2dec(_xlpm.hostmask), 32)))))</definedName>
@@ -83,7 +85,7 @@
     <definedName name="ip.with_hostmask">_xlfn.LAMBDA(_xlpm.ip_interfaces,_xlop.sep, ip.ip(_xlpm.ip_interfaces) &amp; IF(_xlfn.ISOMITTED(_xlpm.sep), "/", _xlpm.sep) &amp; ip.hostmask(_xlpm.ip_interfaces))</definedName>
     <definedName name="ip.with_netmask" comment="Formatting Functions. Most functions returns ip information in _x000a_&quot;ip/prefixlen&quot; format. If you desire another output, use these_x000a_funstion to format_x000a__x000a_ip_interfaces: a Cell, String, Range or Array containing ip interfaces_x000a_in &quot;ip/prefix&quot; format._x000a_```_x000a_with_netma">_xlfn.LAMBDA(_xlpm.ip_interfaces,_xlop.sep, ip.ip(_xlpm.ip_interfaces) &amp; IF(_xlfn.ISOMITTED(_xlpm.sep), "/", _xlpm.sep) &amp; ip.netmask(_xlpm.ip_interfaces))</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -488,6 +490,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -510,7 +515,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBpAHAAIgAsACIAdABlAHgAdAAiADoAIgAvACoAKgBcAG4AIAAqACAARQB4AGMAZQBsACAASQBQACAAQQBkAGQAcgBlAHMAcwAgAE0AYQBuAGkAcAB1AGwAYQB0AGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgBcAG4AIAAqACAAaAB0AHQAcABzADoALwAvAGcAaQBzAHQALgBnAGkAdABoAHUAYgAuAGMAbwBtAC8AbgBnAHIAaQBzAG8AbgAvADUANAA4ADMANgBhADIAZQAxADQAZgA3ADkAZABhADcANgAxADIAZgBlADcAYgA0AGMAYQA1AGUAZQA1ADMANgBcAG4AIAAqAFwAbgAgACoAIABBACAAYwBvAG0AcABsAGUAdABlACAAcwB1AGkAdABlACAAbwBmACAARQB4AGMAZQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAIAB0AG8AIABlAGEAcwBpAGwAeQAgAG0AYQBuAGkAcAB1AGwAYQB0AGUAIABJAFAAIABhAGQAZAByAGUAcwBzAGUAcwAuAFwAbgAgACoAIABBAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIABjAG8AbQBwAGEAdABpAGIAbABlACAAdwBpAHQAaAAgAEQAeQBuAGEAbQBpAGMAIABBAHIAcgBhAHkAcwAuAFwAbgAgACoAIABSAGUAYwBvAG0AbQBlAG4AZAAgAHQAbwAgAGkAbgBzAHQAYQBsAGwAIABpAG4AIABhACAAbgBlAHcAIABtAG8AZAB1AGwAZQAgAGMAYQBsAGwAZQBkACAAXAAiAGkAcABcACIAIABzAG8AIABhAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzAFwAbgAgACoAIABhAHIAZQAgAGEAdgBhAGkAbABhAGIAbABlACAAdQBuAGQAZQByACAAXAAiAGkAcAAuAFwAIgBcAG4AIAAqAFwAbgAgACoAIABDAG8AcAB5AHIAaQBnAGgAdAAgADIAMAAyADUAIABOAGkAYwBvAGwAYQBzACAARwByAGkAcwBvAG4AXABuACAAKgBcAG4AIAAqACAATABpAGMAZQBuAHMAZQBkACAAdQBuAGQAZQByACAAdABoAGUAIABBAHAAYQBjAGgAZQAgAEwAaQBjAGUAbgBzAGUALAAgAFYAZQByAHMAaQBvAG4AIAAyAC4AMAAgACgAdABoAGUAIABcACIATABpAGMAZQBuAHMAZQBcACIAKQA7AFwAbgAgACoAIAB5AG8AdQAgAG0AYQB5ACAAbgBvAHQAIAB1AHMAZQAgAHQAaABpAHMAIABmAGkAbABlACAAZQB4AGMAZQBwAHQAIABpAG4AIABjAG8AbQBwAGwAaQBhAG4AYwBlACAAdwBpAHQAaAAgAHQAaABlACAATABpAGMAZQBuAHMAZQAuAFwAbgAgACoAIABZAG8AdQAgAG0AYQB5ACAAbwBiAHQAYQBpAG4AIABhACAAYwBvAHAAeQAgAG8AZgAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGEAdABcAG4AIAAqAFwAbgAgACoAIAAgACAAIAAgAGgAdAB0AHAAOgAvAC8AdwB3AHcALgBhAHAAYQBjAGgAZQAuAG8AcgBnAC8AbABpAGMAZQBuAHMAZQBzAC8ATABJAEMARQBOAFMARQAtADIALgAwAFwAbgAgACoAXABuACAAKgAgAFUAbgBsAGUAcwBzACAAcgBlAHEAdQBpAHIAZQBkACAAYgB5ACAAYQBwAHAAbABpAGMAYQBiAGwAZQAgAGwAYQB3ACAAbwByACAAYQBnAHIAZQBlAGQAIAB0AG8AIABpAG4AIAB3AHIAaQB0AGkAbgBnACwAIABzAG8AZgB0AHcAYQByAGUAXABuACAAKgAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAgAHUAbgBkAGUAcgAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGkAcwAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAgAG8AbgAgAGEAbgAgAFwAIgBBAFMAIABJAFMAXAAiACAAQgBBAFMASQBTACwAXABuACAAKgAgAFcASQBUAEgATwBVAFQAIABXAEEAUgBSAEEATgBUAEkARQBTACAATwBSACAAQwBPAE4ARABJAFQASQBPAE4AUwAgAE8ARgAgAEEATgBZACAASwBJAE4ARAAsACAAZQBpAHQAaABlAHIAIABlAHgAcAByAGUAcwBzACAAbwByACAAaQBtAHAAbABpAGUAZAAuAFwAbgAgACoAIABTAGUAZQAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGYAbwByACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGMAIABsAGEAbgBnAHUAYQBnAGUAIABnAG8AdgBlAHIAbgBpAG4AZwAgAHAAZQByAG0AaQBzAHMAaQBvAG4AcwAgAGEAbgBkAFwAbgAgACoAIABsAGkAbQBpAHQAYQB0AGkAbwBuAHMAIAB1AG4AZABlAHIAIAB0AGgAZQAgAEwAaQBjAGUAbgBzAGUALgBcAG4AIAAqAFwAbgAgACoALwBcAG4AXABuAFwAbgAvACoAKgBcAG4AIAAqACAATgBvAHQAZQBzAFwAbgAgACoAIABcAG4AIAAqACAARABpAHIAZQBjAHQAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0ADoAXABuACAAKgAgAFwAbgAgACoAIABFAHgAYwBlAGwAIABpAG0AbQBlAGQAaQBhAHQAZQBsAHkAIABjAG8AbgB2AGUAcgB0AHMAIABEAGkAcgBlAGMAdAAgAG4AdQBtAGUAcgBpAGMAIABpAG4AcAB1AHQAIAB0AG8AIABmAGwAbwBhAHQAaQBuAGcALQBwAG8AaQBuAHQAIABhAG4AZABcAG4AIAAqACAAbgB1AG0AYgBlAHIAcwAgAGIAZQB5AG8AbgBkACAAMgBeADMAMQAgACgAMgAxADQANwA0ADgAMwA2ADQAOAApACAAbQBhAHkAIABsAG8AcwBlACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAHMAbwAgAGkAcwAgAG4AbwB0ACAAcwB1AGkAdABhAGIAbABlACAAXABuACAAKgAgAHQAbwAgAG0AYQBuAGEAZwBlACAAMwAyACAAYgBpAHQAIABpAHAAIABhAGQAZAByAGUAcwBzAGUAcwAuAFwAbgAgACoAIABcAG4AIAAqACAAVwBoAGUAbgAgAHkAbwB1ACAAdQBzAGUAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAwADQAMABcACIAKQAsACAARQB4AGMAZQBsACAAcABhAHIAcwBlAHMAIAB0AGgAZQAgAHQAZQB4AHQAIAByAGUAcAByAGUAcwBlAG4AdABhAHQAaQBvAG4AIABvAGYAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgAGEAIABcAG4AIAAqACAAcAByAGUAYwBpAHMAZQAgAG4AdQBtAGUAcgBpAGMAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAXABuACAAKgAgAD0ANAAyADkANAA5ADYANwAwADQAMAAgACAALQAtAD4AIABJAG4AYwBvAHIAcgBlAGMAdAAgAHYAYQBsAHUAZQAgAGQAdQBlACAAdABvACAAZgBsAG8AYQB0AGkAbgBnAC0AcABvAGkAbgB0ACAAcgBvAHUAbgBkAGkAbgBnAFwAbgAgACoAIAA9AFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADAANAAwAFwAIgApACAAIAAtAC0APgAgAEMAbwByAHIAZQBjAHQAIAB2AGEAbAB1AGUAIABiAGUAYwBhAHUAcwBlACAAaQB0ACcAcwAgAHAAYQByAHMAZQBkACAAZgByAGUAcwBoAFwAbgAgACoAIABcAG4AIAAqACAAVwBlACAAdABoAGUAcgBlAGYAbwByAGUAIAB1AHMAZQAgAFYAQQBMAFUARQAoACkAIABlAHYAZQByAHkAdwBoAGUAcgBlACAAdwBoAGUAbgAgAGUAbgB0AGUAcgBpAG4AZwAgAEkAUAAgAGEAZABkAHIAZQBzAHMAZQBzACAAaQBuACAAZABlAGMAaQBtAGEAbAAgAGYAbwByAG0AIABmAG8AcgAgAHMAcABlAGUAZAAuAFwAbgAgACoAXABuACAAKgBcAG4AIAAqACAAQQByAHIAYQB5ACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFMAbwAgAHQAaABhAHQAIABhAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIABhAHIAcgBhAHkAIABjAG8AbQBwAGEAdABpAGIAbABlACAAdwBlACAAYQB2AG8AaQBkACAAdQBzAGkAbgBnACAAYgB1AGkAbAB0AC0AaQBuACAARQB4AGMAZQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAIAB0AGgAYQB0AFwAbgAgACoAIABhAHIAZQAgAG4AbwB0ACAAYwBvAG0AcABhAHQAaQBiAGwAZQA6ACAAQQBOAEQAKAApACwAIABPAFIAKAApACwAIABUAEUAWABUAFMAUABMAEkAVAAoACkALgBcAG4AIAAqACAAXABuACAAKgAgAEEATgBEACgAKQA6ACAASQBuAHMAdABlAGEAZAAsACAAdwBlACAAdQBzAGUAIAAoACgAdABlAHMAdAAxACkAIAAqACAAKAB0AGUAcwB0ACAAMgApACkAIAA+ACAAMABcAG4AIAAqACAATwBSACgAKQA6ACAAIABJAG4AcwB0AGUAYQBkACwAIAB3AGUAIAB1AHMAZQAgACgAKAB0AGUAcwB0ADEAKQAgACsAIAAoAHQAZQBzAHQAIAAyACkAKQAgAD4AIAAwAFwAbgAgACoAXABuACAAKgAgAFQARQBYAFQAUwBQAEwASQBUACgAKQA6ACAASQBuAHMAdABlAGEAZAAsACAAdwBlACAAdQBzAGUAIAB0AGgAZQAgAGMAbABhAHMAcwBpAGMAcwAgAEYASQBOAEQAKAApACwAUwBFAEEAUgBDAEgAKAApACwATABFAEYAVAAoACkALABNAEkARAAoACkALAAgAFIASQBHAEgAVAAoACkAXABuACAAKgBcAG4AIAAqAC8AXABuAFwAbgBcAG4AXABuAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwBcAG4ALwAvACAAIAAgACAAIABGAE8AUgBNAEEAVABJAE4ARwAgAEYAVQBOAEMAVABJAE8ATgBTAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAFwAbgAvACoAKgBcAG4AIAAqACAATQBvAHMAdAAgAGYAdQBuAGMAdABpAG8AbgBzACAAIABpAG4AcAB1AHQAIABtAHUAcwB0ACAAYgBlACAAaQBuACAAdABoAGUAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAASQBmACAAeQBvAHUAcgAgAGQAYQB0AGEAIABmAG8AcgBtAGEAdAAgAGkAcwAgAGQAaQBmAGYAZQByAGUAbgB0ACwAIAB1AHMAZQAgAHQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAdABvAFwAbgAgACoAIABjAG8AbgB2AGUAcgB0AC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAsACAAXAAiAGkAcAAvAG4AZQB0AG0AYQBzAGsAXAAiACAAbwByACAAXAAiAGkAcAAvAGgAbwBzAHQAbQBhAHMAawBcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABbAHMAZQBwAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAdABoAGUAIABzAGUAcABhAHIAYQB0AG8AcgAgAHUAcwBlAGQAIAB0AG8AIABzAGUAcABhAHIAYQB0AGUAIAB0AGgAZQAgAEkAUAAgAGYAcgBvAG0AIAB0AGgAZQAgAHAAcgBlAGYAaQB4AC8AbgBlAHQAbQBhAHMAawAvAGgAbwBzAHQAbQBhAHMAawAuAFwAbgAgACoAIABEAGUAZgBhAHUAbAB0ACAAdABvACAAXAAiAC8AXAAiAC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABmAHIAbwBtAF8AcAByAGUAZgBpAHgAbABlAG4AKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxACAAbQBhAHMAawAgADIANABcACIALAAgAFwAIgAgAG0AYQBzAGsAIABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAXABuACAAKgAgAGYAcgBvAG0AXwBuAGUAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiAFwAbgAgACoAIABhAGQAZAByAGUAcwBzACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAgADAALgAwAC4AMAAuADIANQA1AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgBcAG4AIAAqAC8AXABuAGYAcgBvAG0AXwBwAHIAZQBmAGkAeABsAGUAbgAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAcwBlAHAAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAGUAcAAsAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAZgBpAHgAbABlAG4ALAAgAFQARQBYAFQAQQBGAFQARQBSACgAYwBlAGwAbABzACwAIABzAGUAcAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AcwB0AHIAaQBuAGcAIAAmACAAXAAiAC8AXAAiACAAJgAgAHAAcgBlAGYAaQB4AGwAZQBuAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAGYAcgBvAG0AXwBuAGUAdABtAGEAcwBrACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHMAZQBwACwAaQBmACgASQBTAE8ATQBJAFQAVABFAEQAKABzAGUAcAApACwAIABcACIALwBcACIALAAgAHMAZQBwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABfAHMAdAByAGkAbgBnACwAIABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABtAGEAcwBrACwAIABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcABfAHMAdAByAGkAbgBnACAAJgAgAFwAIgAvAFwAIgAgACYAIABfAGQAbwB0ADIAcABmAHgAKABuAGUAdABtAGEAcwBrACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AZgByAG8AbQBfAGgAbwBzAHQAbQBhAHMAawAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAcwBlAHAAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAGUAcAAsAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHMAdABtAGEAcwBrACwAIABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAgACYAIABcACIALwBcACIAIAAmACAAXwBiAGkAbgAyAHAAZgB4ACgAXwBkAGUAYwAyAGIAaQBuACgAQgBJAFQATgBPAFQAKABfAGQAbwB0ADIAZABlAGMAKABoAG8AcwB0AG0AYQBzAGsAKQAsADMAMgApACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAGkAcAAgAGEAZABkAHIAZQBzAHMAZQBzACAAdwBpAHQAaAAgAG4AbwAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAB3AGkAdABoACAAdABoAGUAIABjAG8AcgByAGUAYwB0ACAAYwBsAGEAcwBzAGYAdQBsACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAuAFwAbgAgACoAIABJAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIABmAG8AbABsAG8AdwBlAGQAIABiAHkAIABhACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAsACAAdABoAGEAdAAgAGkAbgB0AGUAcgBmAGEAYwBlACAAaQBzACAAcgBlAHQAdQByAG4AZQBkACAAYwBoAGUAYwBrAGUAZAAgAGIAdQB0AFwAbgAgACoAIAB1AG4AYwBoAGEAbgBnAGUAZAAuAFwAbgAgACoAIABJAGYAIABuAG8AIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAaQBzACAAcAByAG8AdgBpAGQAZQBkACwAIAB0AGgAZQAgAGQAZQBmAGEAdQBsAHQAIABzAHUAYgBuAGUAdAAgAG0AYQBzAGsAIABmAG8AcgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAgAGMAbABhAHMAcwAgAGkAcwAgAGEAZABkAGUAZAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcABcACIAIABvAHIAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGYAcgBvAG0AXwBjAGwAYQBzAHMAZgB1AGwAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBmAHIAbwBtAF8AYwBsAGEAcwBzAGYAdQBsACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBmAHMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADIAMQA0ADcANAA4ADMANgA0ADgAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAwACAAYQBuAGQAIAAxADIANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AOABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAxADIAOAAgAGEAbgBkACAAMQA5ADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAHAAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvADEANgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADMANwA1ADgAMAA5ADYAMwA4ADQAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAxADkAMgAgAGEAbgBkACAAMgAyADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAHAAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvADIANABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwA3ADUAOAAwADkANgAzADgANABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEYAbwByAG0AYQB0AHQAaQBuAGcAIABGAHUAbgBjAHQAaQBvAG4AcwAuACAATQBvAHMAdAAgAGYAdQBuAGMAdABpAG8AbgBzACAAcgBlAHQAdQByAG4AcwAgAGkAcAAgAGkAbgBmAG8AcgBtAGEAdABpAG8AbgAgAGkAbgAgAFwAbgAgACoAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAbABlAG4AXAAiACAAZgBvAHIAbQBhAHQALgAgAEkAZgAgAHkAbwB1ACAAZABlAHMAaQByAGUAIABhAG4AbwB0AGgAZQByACAAbwB1AHQAcAB1AHQALAAgAHUAcwBlACAAdABoAGUAcwBlAFwAbgAgACoAIABmAHUAbgBzAHQAaQBvAG4AIAB0AG8AIABmAG8AcgBtAGEAdABcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHcAaQB0AGgAXwBuAGUAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiAFwAbgAgACoAIAB3AGkAdABoAF8AaABvAHMAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADAALgAwAC4AMAAuADIANQA1AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AdwBpAHQAaABfAG4AZQB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAAaQBwACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACAAJgAgAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACAAJgAgAG4AZQB0AG0AYQBzAGsAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACkAOwBcAG4AXABuAHcAaQB0AGgAXwBoAG8AcwB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAAaQBwACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACAAJgAgAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACAAJgAgAGgAbwBzAHQAbQBhAHMAawAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAIABwAGEAZABkAGUAZAAgAHcAaQB0AGgAIAAwAHMAIABzAG8AIAB0AGgAYQB0ACAAdABoAGUAeQAgAGMAYQBuACAAYgBlACAAZQBhAHMAaQBsAHkAIABzAG8AcgB0AGUAZAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAZABvACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAdABoAGUAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoAFwAbgAgACoAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHAAbwBuAHMAZQAgAGkAZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABwAGEAZABkAGUAZAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwA4AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAAMAAwAC4AMAAwADEALwAwADgAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuACAAcABhAGQAZABlAGQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBjAGgAZQBjAGsAZQBkACwAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBjAGgAZQBjAGsAZQBkACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMgAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AYwBoAGUAYwBrAGUAZAAsACAAXAAiAC4AXAAiACwAIAAyACkALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAzACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBjAGgAZQBjAGsAZQBkACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AYwBoAGUAYwBrAGUAZAAsACAAXAAiAC4AXAAiACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAbwBjAHQAZQB0ADEALAAgAFwAIgAwADAAMABcACIAKQAgACYAIABcACIALgBcACIAIAAmAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAG8AYwB0AGUAdAAyACwAIABcACIAMAAwADAAXAAiACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAG8AYwB0AGUAdAAzACwAIABcACIAMAAwADAAXAAiACkAIAAmACAAXAAiAC4AXAAiACAAJgBcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKABvAGMAdABlAHQANAAsACAAXAAiADAAMAAwAFwAIgApACAAJgAgAEkARgAoAE4ATwBUACgAbwBtAGkAdABfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAKQAgACoAIABpAHMAXwBuAGUAdAAsACAAXAAiAC8AXAAiACAAJgAgAFQARQBYAFQAKABfAGQAZQBjADIAcABmAHgAKABwAGYAeABkAGUAYwApACwAXAAiADAAMABcACIAKQAsACAAXAAiAFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbwBjAHQAZQB0AHMAIABjAG8AcgByAGUAcwBwAG8AbgBkAGkAbgBnACAAdABvACAAdABoAGUAIABoAG8AcwB0ACAAcABhAHIAdAAgAG8AZgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABGAG8AcgAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABoAGkAZwBoAGUAcgAgAHQAaABhAG4AIAAyADQALAAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGwAYQBzAHQAIABvAGMAdABlAHQALgBcAG4AIAAqACAARgBvAHIAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAYgBlAHQAdwBlAGUAbgAgADEANgAgAGEAbgBkACAAMgAzACwAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAdAB3AG8AIABvAGMAdABlAHQAcwAuAFwAbgAgACoAIABGAG8AcgAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABiAGUAdAB3AGUAZQBuACAAOAAgAGEAbgBkACAAMQA1ACwAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAdABoAHIAZQBlACAAbwBjAHQAZQB0AHMALgBcAG4AIAAqACAARgBvAHIAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADcALAAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAdQBsAGwAIABJAFAAIABhAGQAZAByAGUAcwBzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGgAbwBzAHQAXwBvAGMAdABlAHQAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGgAbwBzAHQAXwBvAGMAdABlAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMQAsACAAVgBBAEwAVQBFACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGEAZABkAHIAZQBzAHMALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADIAKQAsACAAXAAiAC4AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADMALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGEAZABkAHIAZQBzAHMALAAgAFwAIgAuAFwAIgAsACAAMwApACwAIABcACIALgBcACIALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQANAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABvAGMAdABlAHQAMQAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMQAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPgAgADIANQA1ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAG8AYwB0AGUAdAA0ACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAA0ACAAPgAgADIANQA1ACkAIAArACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AMwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPgA9ACAAMgA0ACwAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAGYAeAAgAD4APQAgADEANgAsACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAzACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPgA9ACAAOAAsACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAyACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMwAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAGYAeAAgAD4APQAgADAALAAgAG8AYwB0AGUAdAAxACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMgAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADMAIAAmACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIABpAG4AIABiAGkAbgBhAHIAeQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHAAXwBpAG4AXwBiAGkAbgBhAHIAeQAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiACkAIAA9AD0APgAgAFwAIgAwAGIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHAAXwBpAG4AXwBiAGkAbgBhAHIAeQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwAGIAXAAiACAAJgAgAF8AZABvAHQAMgBiAGkAbgAoAGkAcABfAGEAZABkAHIAZQBzAHMAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGIAaQBuAGEAcgB5AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAwAGIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBuAGUAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcACIAMABiAFwAIgAgACYAIABfAHAAZgB4ADIAYgBpAG4AKABwAGYAeAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AcwB0AG0AYQBzAGsAIABpAG4AIABiAGkAbgBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAaABvAHMAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMABiADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAMQAxADEAMQAxADEAMQBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaABvAHMAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcACIAMABiAFwAIgAgACYAIABfAGQAZQBjADIAYgBpAG4AKABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAzADIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAHAAIABhAGQAZAByAGUAcwBzACAAaQBuACAAZABlAGMAaQBtAGEAbAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHAAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANQA1AFwAIgApACAAPQA9AD4AIAA0ADIAOQA0ADkANgA3ADIAOQA1AFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcABfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBhAGQAZAByAGUAcwBzACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADEAMAAuADAALgAwAC4AMAAvADgAXAAiACkAIAA9AD0APgAgADQAMgA3ADgAMQA5ADAAMAA4ADAAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHQAbQBhAHMAawBfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AcwB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADEAMAAuADAALgAwAC4AMAAvADgAXAAiACkAIAA9AD0APgAgADEANgA3ADcANwAyADEANQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAQgBJAFQATgBPAFQAKABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAMwAyACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAaABlAGMAawBlAGQAIABpAHAAIABwAHIAbwBwAGUAcgBsAHkAIABmAG8AcgBtAGEAdAB0AGUAZAAgAG8AcgAgAE4AQQAgAGkAZgAgAHQAaABlACAAaQBwACAAaQBzACAAaQBuAHYAYQBsAGkAZAAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAAXAAiACAAbwByACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABjAGgAZQBjAGsAZQBkACgAXAAiADEAMAAuADAAMAAuADAALgAwADAALwA4AFwAIgApACAAPQA9AD4AIABcACIAMQAwAC4AMAAuADAALgAwAC8AOABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AYwBoAGUAYwBrAGUAZAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAEkARgAoAGkAcwBfAG4AZQB0ACwAIABcACIALwBcACIAIAAmAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkALAAgAFwAIgBcACIAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAC8ALwAgACAAIAAgACAAQgBBAFMARQAgAEYAVQBOAEMAVABJAE8ATgBTAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuACAAdABoAGUAIABJAFAAIABwAGEAcgB0ACAAbwBmACAAYQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAHAAYQBpAHIALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAFwAbgAgACoALwBcAG4AaQBwACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AZABvAHQAMgBkAGUAYwAoAGkAcABfAHMAdAByAGkAbgBnACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABwAGEAcgB0ACAAbwBmACAAYQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AGwAZQBuAFwAIgAgAHAAYQBpAHIAIABhAHMAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHAAcgBlAGYAaQB4AGwAZQBuACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAMgA0AFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAHAAcgBlAGYAaQB4AGwAZQBuACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAHAAZgB4ACAAPAAgADAAKQAgACsAIAAoAHAAZgB4ACAAPgAgADMAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgAHAAYQByAHQAIABvAGYAIABhAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAcABhAGkAcgAgAGEAcwAgAGEAIABuAGUAdAAgAG0AYQBzAGsALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHQAbQBhAHMAawAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkAKQApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgAHAAYQByAHQAIABvAGYAIABhAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAcABhAGkAcgAgAGEAcwAgAGEAIABoAG8AcwB0ACAAbQBhAHMAawAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAaABvAHMAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADAALgAwAC4AMAAuADIANQA1AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAzADIAKQApACkAXABuAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHQAdwBvAHIAawAgAGEAZABkAHIAZQBzAHMAIABvAGYAIAB0AGgAZQAgAGcAaQB2AGUAbgAgAGkAbgB0AGUAcgBmAGEAYwBlACAAaQBwAC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAGUAdAB3AG8AcgBrAF8AYQBkAGQAcgBlAHMAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG4AZQB0AHcAbwByAGsAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAKQAgACYAIABJAEYAKABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGIAcgBvAGEAZABjAGEAcwB0ACAAYQBkAGQAcgBlAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGIAcgBvAGEAZABjAGEAcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMgA1ADUAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGIAcgBvAGEAZABjAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAZQB4AGMAbAB1AGQAZQBfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGMAZQBsAGwAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGMAZQBsAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAKQAgACYAIABJAEYAKABlAHgAYwBsAHUAZABlAF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAYQBkAGQAcgBlAHMAcwBlAHMAIABpAG4AIAB0AGgAZQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAHUAbQBfAGEAZABkAHIAZQBzAHMAZQBzACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAMgA1ADYAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgB1AG0AXwBhAGQAZAByAGUAcwBzAGUAcwAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AIAAzADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIASQBUAE4ATwBUACgAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsADMAMgApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvAC8AIABTAHUAYgBuAGUAdAAgAEgAbwBzAHQAIABOAGEAdgBpAGcAYQB0AGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZgBpAHIAcwB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQA6ACAATwBwAHQAaQBvAG4AYQBsACwAIABkAG8AIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAGkAbgAgAHQAaABlACAAcgBlAHMAcABvAG4AcwBlACAAaQBmACAAdABoAGUAIABpAG4AcAB1AHQAIABpAHMAIABhACAAbgBlAHQAdwBvAHIAawBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGYAaQByAHMAdABoAG8AcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AZgBpAHIAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABjAGUAbABsAHMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAYwBlAGwAbABzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABjAGUAbABsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGYAaQByAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACkAIAAmACAASQBGACgAIABvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AIAArACAAbgBvAHQAKABpAHMAXwBuAGUAdAApACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQA6ACAATwBwAHQAaQBvAG4AYQBsACwAIABkAG8AIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAGkAbgAgAHQAaABlACAAcgBlAHMAcABvAG4AcwBlACAAaQBmACAAdABoAGUAIABpAG4AcAB1AHQAIABpAHMAIABhACAAbgBlAHQAdwBvAHIAawBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGwAYQBzAHQAaABvAHMAdAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADIANQA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBsAGEAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALAAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGMAZQBsAGwAcwApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABjAGUAbABsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGMAZQBsAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGwAYQBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHgAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwAgAG8AZgAgAGEAIABzAHUAYgBuAGUAdAAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdADoAIABPAHAAdABpAG8AbgBhAGwALAAgAGQAbwAgAG4AbwB0ACAAaQBuAGMAbAB1AGQAZQAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaABcAG4AIAAqACAAaQBuACAAdABoAGUAIAByAGUAcwBwAG8AbgBzAGUAIABpAGYAIAB0AGgAZQAgAGkAbgBwAHUAdAAgAGkAcwAgAGEAIABuAGUAdAB3AG8AcgBrAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgA0AC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAzAFwAIgBcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQAwAC4AMAAuADAALgAyAFwAIgApACAAPQA9AD4AIABcACIAMQAwAC4AMAAuADAALgAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBwAHIAZQB2AGkAbwB1AHMAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGMAZQBsAGwAcwApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABjAGUAbABsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHcAXwBpAHAALABpAHAAZABlAGMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AGgAbwBzAHQALABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHcAXwBpAHAAIAA8ACAAZgBpAHIAcwB0AGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdwBfAGkAcAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB4AHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgA0AC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAzAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AbgBlAHgAdABfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAYwBlAGwAbABzACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABjAGUAbABsAHMALABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAGMAZQBsAGwAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABuAGUAdwBfAGkAcAAsAGkAcABkAGUAYwAgACsAIAAxACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AGgAbwBzAHQALABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AGgAbwBzAHQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABuAGUAdwBfAGkAcAAgAD4AIABsAGEAcwB0AGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdwBfAGkAcAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABuAGUAeAB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHAAcgBlAHYAaQBvAHUAcwBoAG8AcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4ANAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMwBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBuAGQAZQB4AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABpAG4AZABlAHgALABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaABvAHMAdAAsAF8AbABhAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBoAG8AcwB0ACwAXwBmAGkAcgBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAPAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBoAG8AcwB0ACAAKwAgAGkAbgBkAGUAeAAgACsAIAAxACAAPAAgAGYAaQByAHMAdABfAGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAbABhAHMAdABfAGgAbwBzAHQAIAArACAAaQBuAGQAZQB4ACAAKwAgADEAIAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGgAbwBzAHQAIAArACAAaQBuAGQAZQB4ACAALQAgADEAIAA+ACAAbABhAHMAdABfAGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAZgBpAHIAcwB0AF8AaABvAHMAdAAgACsAIABpAG4AZABlAHgAIAAtACAAMQApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAcAByAGUAdgBpAG8AdQBzACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAHMAdQBiAG4AZQB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADcALgAyADUANQAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAHAAcgBlAHYAaQBvAHUAcwBfAHMAdQBiAG4AZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABkAGUAYwAsACAAXwBwAHIAZQB2AGkAbwB1AHMAcwB1AGIAbgBlAHQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABuAGUAdABkAGUAYwAgADwAIAAwACkAIAArACAAKABuAGUAdABkAGUAYwAgAD4AIAAyACAAXgAgADMAMgAgAC0AIAAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB4AHQAIABzAHUAYgBuAGUAdAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAGUAeAB0AHMAdQBiAG4AZQB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHgAdABfAHMAdQBiAG4AZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AbgBlAHgAdABzAHUAYgBuAGUAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAXAAiAGkAbgBkAGUAeABcACIAdABoACAAcwB1AGIAbgBlAHQAIABpAG4AIABhACAAbABhAHIAZwBlAHIAIABzAHUAbQBtAGEAcgB5AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBzAHUAbQBtAGEAcgB5ADoAIABhACAAQwBlAGwAbAAgAG8AcgAgAFMAdAByAGkAbgBnACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAbgAgAGkAcAAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAF8AcAByAGUAZgBpAHgAOgAgAGEAIABDAGUAbABsACAAbwByACAAUwB0AHIAaQBuAGcAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAYQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAHQAbwAgAHMAdQBiAG4AZQB0ACAAdABoAGUAIABzAHUAbQBtAGEAcgB5ACAAaQBuAHQAbwAuAFwAbgAgACoAIABpAG4AZABlAHgAOgAgAGEAIABwAG8AcwBpAHQAaQB2AGUAIABvAHIAIABuAGUAZwBhAHQAaQB2AGUAIABpAG4AZABlAHgAIABuAHUAbQBiAGUAcgAuACAASQBmACAAcABvAHMAaQB0AGkAdgBlACwAIAB3AGkAbABsACAAXABuACAAKgAgAHIAZQB0AHUAcgBuACAAdABoAGUAIABzAHUAYgBuAGUAdAAgAGEAdAAgAHQAaABlACAAaQBuAGQAZQB4ACAAcABvAHMAaQB0AGkAbwBuACAAKABmAGkAcgBzAHQAIABzAHUAYgBuAGUAdAAgAGkAcwAgADAAKQAuAFwAbgAgACoAIABJAGYAIABuAGUAZwBhAHQAaQB2AGUALAAgAHcAaQBsAGwAIAByAGUAdAB1AHIAbgAgAHQAaABlACAAcwB1AGIAbgBlAHQAIABkAGUAYwByAGUAYQBzAGkAbgBnACAAZgByAG8AbQAgAHQAaABlACAAZQBuAGQAIABvAGYAXABuACAAKgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuACAAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAG4AZABlAHgAXwBzAHUAYgBuAGUAdAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAxADYAXAAiACwAMgA0ACwALQAzACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMgA1ADMALgAwAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAG4AZABlAHgAXwBzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAHMAdQBtAG0AYQByAHkALAAgAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeAAsACAAaQBuAGQAZQB4ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAaQBwAF8AcwB1AG0AbQBhAHIAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGkAcABfAHMAdQBtAG0AYQByAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcwBtAGEAbABsAGUAcgBfAHAAcgBlAGYAaQB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAsACAAXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABzAHUAYgBfAHMAaQB6AGUALABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeAApACwAMwAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAB0AGEAcgBnAGUAdABfAG4AZQB0AF8AZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AZABlAHgAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcABfAGQAZQBjACAAKwAgAGkAbgBkAGUAeAAgACoAIAAoAHMAdQBiAF8AcwBpAHoAZQAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAHMAdABfAGkAcABfAGQAZQBjACAAKwAgADEAIAArACAAaQBuAGQAZQB4ACAAKgAgACgAcwB1AGIAXwBzAGkAegBlACAAKwAgADEAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKAB0AGEAcgBnAGUAdABfAG4AZQB0AF8AZABlAGMAKQAgACYAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcwBtAGEAbABsAGUAcgBfAHAAcgBlAGYAaQB4AGQAZQBjACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZAB5AG4AYQBtAGkAYwAgAGEAcgByAGEAeQAgAG8AZgAgAHQAaABlACAAcwB1AGIAbgBlAHQAcwAgAGkAbgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAHMAdQBwAGUAcgBuAGUAdAA6ACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAHAAZgB4ADoAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABvAGYAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AHQAaQBuAGcALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHMAdQBiAG4AZQB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgAsADIANQApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADUAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAyADgALwAyADUAXAAiAH0AXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AcwB1AGIAbgBlAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdQBwAGUAcgBuAGUAdAAsAHMAbQBhAGwAbABlAHIAcABmAHgALABbAHMAdABhAHIAdABdACwAWwBzAHQAbwBwAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AHAAZQByAG4AZQB0AGkAcAAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAHMAdQBwAGUAcgBuAGUAdAAsACAAXAAiAC8AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBwAGUAcgBuAGUAdABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABzAHUAcABlAHIAbgBlAHQALAAgAFwAIgAvAFwAIgApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAF8AZABvAHQAMgBkAGUAYwAoAHMAdQBwAGUAcgBuAGUAdABpAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AHAAZQByAG4AZQB0AHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABzAHUAcABlAHIAbgBlAHQAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAHMAbQBhAGwAbABlAHIAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHMAbQBhAGwAbABlAHIAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcABfAGQAZQBjACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAHMAdQBwAGUAcgBuAGUAdABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAHMAdQBwAGUAcgBuAGUAdABwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAcwBpAHoAZQAsACAAQgBJAFQATgBPAFQAKABzAG0AYQBsAGwAZQByAHAAZgB4AGQAZQBjACwAMwAyACkAIAArACAAMQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAHQAYQByAGcAZQB0AF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAdABhAHIAdAAgAD4APQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIABzAHQAYQByAHQAIAAqACAAbgBlAHQAcwBpAHoAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIAAxACAAKwAgAHMAdABhAHIAdAAgACoAIABuAGUAdABzAGkAegBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AdABhAHIAZwBlAHQAXwBpAHAALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMATwBNAEkAVABUAEUARAAoAHMAdABvAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcwB0AG8AcAAgAD4APQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIABzAHQAbwBwACAAKgAgAG4AZQB0AHMAaQB6AGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMAIAArACAAMQAgACsAIABzAHQAbwBwACAAKgAgAG4AZQB0AHMAaQB6AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIAbgBlAHQAXwBuAGIAcgAsACAAKABsAGEAcwB0AF8AdABhAHIAZwBlAHQAXwBpAHAAIAArACAAMQAgAC0AIABmAGkAcgBzAHQAXwB0AGEAcgBnAGUAdABfAGkAcAApACAALwAgAG4AZQB0AHMAaQB6AGUALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABmAGkAcgBzAHQAXwB0AGEAcgBnAGUAdABfAGkAcAAgACsAIABTAEUAUQBVAEUATgBDAEUAKABzAHUAYgBuAGUAdABfAG4AYgByACwALAAwACwAMQApACAAKgAgAG4AZQB0AHMAaQB6AGUAKQAgACYAIABcACIALwBcACIAIAAmACAAcwBtAGEAbABsAGUAcgBwAGYAeABcAG4AXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAYQAgAGQAeQBuAGEAbQBpAGMAIABhAHIAcgBhAHkAIABvAGYAIAB0AGgAZQAgAGgAbwBzAHQAcwAgAGkAbgAgAHQAaABlACAAbgBlAHQAdwBvAHIAawAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAG4AZQB0AHcAbwByAGsAOgAgAGEAIABDAGUAbABsACAAbwByACAAUwB0AHIAaQBuAGcAIABuAGUAdAB3AG8AcgBrACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABoAG8AcwB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMwAxAFwAIgApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AHMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAWwBzAHQAYQByAHQAXQAsAFsAcwB0AG8AcABdACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAG8AdAAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAXwBkAG8AdAAyAGQAZQBjACgAaQBwAGQAbwB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAYQBsAF8AcwB0AG8AcAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABzAHQAbwBwACkALAAtADEALABzAHQAbwBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAIAA8AD0AIAAzADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPAA9ACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBuAGQAZQB4AGUAZABfAGkAcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBwACAAKwAgAHMAdABhAHIAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAIAArACAAcwB0AGEAcgB0ACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQBhAGwAXwBzAHQAbwBwACAAPgA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcAAgACsAIAByAGUAYQBsAF8AcwB0AG8AcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAIAArACAAcgBlAGEAbABfAHMAdABvAHAAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG4AdQBtAGIAZQByAF8AbwBmAF8AaABvAHMAdABzACwAIABsAGEAcwB0AF8AaQBuAGQAZQB4AGUAZABfAGkAcAAgAC0AIABmAGkAcgBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABmAGkAcgBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACAAPAAgAGYAaQByAHMAdABfAGkAcAApACAAKwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbABhAHMAdABfAGkAbgBkAGUAeABlAGQAXwBpAHAAIAA+ACAAbABhAHMAdABfAGkAcAApACAAKwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AdQBtAGIAZQByAF8AbwBmAF8AaABvAHMAdABzACAAPAAgADEALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGYAaQByAHMAdABfAGkAbgBkAGUAeABlAGQAXwBpAHAAIAArACAAUwBFAFEAVQBFAE4AQwBFACgAbgB1AG0AYgBlAHIAXwBvAGYAXwBoAG8AcwB0AHMALAAsADAALAAxACkAKQAgACYAIABJAEYAKABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZAB5AG4AYQBtAGkAYwAgAGEAcgByAGEAeQAgAG8AZgAgAHQAaABlACAAcwB1AGIAbgBlAHQAcwAgAGkAbgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAHMAdQBwAGUAcgBuAGUAdAA6ACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAHAAZgB4ADoAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABvAGYAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AHQAaQBuAGcALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHMAdQBiAG4AZQB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgAsADIANQApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADUAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAyADgALwAyADUAXAAiAH0AXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AcwB1AGIAbgBlAHQAXwBvAGYAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABvAHQAaABlAHIALABcAG4AIAAgACAAIAAvAC8AUgBlAHQAdQByAG4AIABUAHIAdQBlACAAaQBmACAAaQBwAF8AbgBlAHQAdwBvAHIAawAgAGkAcwAgAGEAIABzAHUAYgBuAGUAdAAgAG8AZgAgAG8AdABoAGUAcgAuAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABfAGQAZQBjACwAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AbgBlAHQAdwBvAHIAawAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABuAGUAdABfAGQAZQBjACwAIABuAGUAdABfAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AbABhAHMAdABfAGkAcAAsACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG4AZQB0AF8AZABlAGMALAAgAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABvAHQAaABlAHIALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAbwB0AGgAZQByACwAIABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABvAHQAaABlAHIAXwBuAGUAdABfAGQAZQBjACwAIABvAHQAaABlAHIAXwBuAGUAdABfAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AbABhAHMAdABfAGkAcAAsACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAKAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACAAPAA9ACAAbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAAIAApACAAKgAgACgAbgBlAHQAXwBsAGEAcwB0AF8AaQBwACAAPAA9ACAAbwB0AGgAZQByAF8AbgBlAHQAXwBsAGEAcwB0AF8AaQBwACkAKQAgAD4AIAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAHMAdQBwAGUAcgBuAGUAdABfAG8AZgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAG8AdABoAGUAcgAsAFwAbgAgACAAIAAgAC8ALwBSAGUAdAB1AHIAbgAgAFQAcgB1AGUAIABpAGYAIABpAHAAXwBuAGUAdAB3AG8AcgBrACAAaQBzACAAYQAgAHMAdQBiAG4AZQB0ACAAbwBmACAAbwB0AGgAZQByAC4AXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABfAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG4AZQB0AF8AZABlAGMALAAgAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAbgBlAHQAXwBkAGUAYwAsACAAbgBlAHQAXwBwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAG8AdABoAGUAcgAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABvAHQAaABlAHIALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAbwB0AGgAZQByAF8AbgBlAHQAXwBkAGUAYwAsACAAbwB0AGgAZQByAF8AbgBlAHQAXwBwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAKAAoACAAbwB0AGgAZQByAF8AbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAAIAA8AD0AIABuAGUAdABfAGYAaQByAHMAdABfAGkAcAAgACkAIAAqACAAKABuAGUAdABfAGwAYQBzAHQAXwBpAHAAIAA8AD0AIABvAHQAaABlAHIAXwBuAGUAdABfAGwAYQBzAHQAXwBpAHAAKQApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AcwB1AHAAZQByAG4AZQB0AF8AZABpAGYAZgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAHAAcgBlAGYAaQB4AGwAZQBuAF8AZABpAGYAZgAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAG4AZQB0AHcAbwByAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBuAGUAdAB3AG8AcgBrACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdwBfAHAAcgBlAGYAaQB4ACwAIABwAGYAeAAgAC0AIABwAHIAZQBmAGkAeABsAGUAbgBfAGQAaQBmAGYALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPAAgADAAKQAgACsAIAAoAG4AZQB3AF8AcAByAGUAZgBpAHgAIAA+ACAAMwAyACkAIAArACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPgA9ACAAcABmAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIAAoAHAAZgB4ACAALQAgAHAAcgBlAGYAaQB4AGwAZQBuAF8AZABpAGYAZgApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBzAHUAcABlAHIAbgBlAHQAXwBuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AbgBlAHQAdwBvAHIAawAsACAAbgBlAHcAXwBwAHIAZQBmAGkAeAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAG4AZQB0AHcAbwByAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBuAGUAdAB3AG8AcgBrACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbgBlAHcAXwBwAHIAZQBmAGkAeAAgADwAIAAwACkAIAArACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPgAgADMAMgApACAAKwAgACgAbgBlAHcAXwBwAHIAZQBmAGkAeAAgAD4APQAgAHAAZgB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABpAHAAZABlAGMAKQAgACYAIABcACIALwBcACIAIAAmACAAbgBlAHcAXwBwAHIAZQBmAGkAeABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAcwBvAHIAdABlAGQAIABsAGkAcwB0ACAAbwBmACAAaQBwACAAYQBkAGQAcgBlAHMAcwBlAHMALwBpAG4AdABlAHIAZgBhAGMAZQBzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAAXAAiACAAbwByACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAZABvACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAdABoAGUAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoAFwAbgAgACoAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHAAbwBuAHMAZQAgAGkAZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABzAG8AcgB0ACgAewBcACIAMQA5ADIALgAxADYAOAAuADEALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgB9ACkAIAA9AD0APgAgAHsAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgAgAHMAbwByAHQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAAaQBwAC4AYwBoAGUAYwBrAGUAZAAoAFMATwBSAFQAKABpAHAALgBwAGEAZABkAGUAZAAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAApACkAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIABvAGYAZgBzAGUAdAAgAGIAeQAgAHQAaABlACAAZABlAGMAaQBtAGEAbAAgAG8AZgBmAHMAZQB0ACAAcAByAG8AdgBpAGQAZQBkAC4AXABuACAAKgAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAcgBlAHQAdQByAG4AcwAgACMATgAvAEEAIABpAGYAIAB0AGgAZQAgAG8AZgBmAHMAZQB0ACAASQBQACAAaQBzACAAbwB1AHQAcwBpAGQAZQAgAHQAaABlACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAbwBmAGYAcwBlAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgAsADEAMAApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADEALgAxADEALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG8AZgBmAHMAZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAIABkAGUAYwBpAG0AYQBsAF8AbwBmAGYAcwBlAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAKABjAGUAbABsAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGYAZgBzAGUAdABfAGkAcABkAGUAYwAsACAAaQBwAGQAZQBjACAAKwAgAGQAZQBjAGkAbQBhAGwAXwBvAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAbwBmAGYAcwBlAHQAXwBpAHAAZABlAGMAIAA8ACAAZgBpAHIAcwB0AF8AaQBwACkAIAArACAAKABvAGYAZgBzAGUAdABfAGkAcABkAGUAYwAgAD4AIABsAGEAcwB0AF8AaQBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAG8AZgBmAHMAZQB0AF8AaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAHcAaQB0AGgAIABlAGEAYwBoACAAbwBjAHQAZQB0ACAAbwBmAGYAcwBlAHQAIABiAHkAIAB2AGEAbAB1AGUAIABwAHIAbwB2AGkAZABlAGQALgBcAG4AIAAqACAASQB0ACAAZABvAGUAcwAgAG4AbwB0ACAAZQByAHIAbwByACAAaQBmACAAdABoAGUAIABvAGYAZgBzAGUAdAAgAEkAUAAgAGkAcwAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFUAcwBlAGYAdQBsACAAdABvACAAbQBhAHAAIAB0AHcAbwAgAG4AZQB0AHcAbwByAGsAcwAgAHQAbwBnAGUAdABoAGUAcgAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABvAGYAZgBzAGUAdABvAGMAdABlAHQAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiACwAMAAsAC0AMQAwACwAMQAwACwAMAApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADUAOAAuADEAMAAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG8AYwB0AGUAdABfAG8AZgBmAHMAZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAIABvAGYAZgBzAGUAdAAxACwAIABvAGYAZgBzAGUAdAAyACwAIABvAGYAZgBzAGUAdAAzACwAIABvAGYAZgBzAGUAdAA0ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlACAAdABoAGUAIAB0AG8AdABhAGwAIABvAGYAZgBzAGUAdAAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIABvAGYAZgBzAGUAdABkAGUAYwAsACAAKABvAGYAZgBzAGUAdAAxACAAKgAgADIANQA2ACAAXgAgADMAKQAgACsAIAAoAG8AZgBmAHMAZQB0ADIAIAAqACAAMgA1ADYAIABeACAAMgApACAAKwAgACgAbwBmAGYAcwBlAHQAMwAgACoAIAAyADUANgApACAAKwAgACgAbwBmAGYAcwBlAHQANAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAgACsAIABvAGYAZgBzAGUAdABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjAGkAbgB2ACwAIABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAgADMAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAaQBwAGQAZQBjACAAPAAgADAAKQAgACsAIAAoAGkAcABkAGUAYwAgAD4AIAAyACAAXgAgADMAMgAgAC0AIAAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABUAFIAVQBFACAAaQBmACAAdABoAGUAIABzAHUAYgBuAGUAdAAgAGkAcwAgAHAAYQByAHQAIABvAGYAIABhAG4AIABSAEYAQwAxADkAMQA4ACAAYgBsAG8AYwBrACwAIABGAEEATABTAEUAIABvAHQAaABlAHIAdwBpAHMAZQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBSAEYAQwAxADkAMQA4ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AaQBzAF8AcgBmAGMAMQA5ADEAOAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMQA2ADcANwA3ADIAMQA2ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEAOAA0ADUANAA5ADMANwA1AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADgAOAA2ADcAMgA5ADcAMgA4AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADgAOAA3ADcANwA4ADMAMAAzAFwAIgApACkAKQAgACsAIAAvAC8AIAAxADcAMgAuADEANgAuADAALgAwAC8AMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAzADIAMgAzADUANQAyADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAzADIAMwAwADEAMAA1ADUAXAAiACkAKQApACAAIAAgAC8ALwAgADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADEANgBcAG4AIAAgACAAIAAgACAAIAAgACkAIAA+ACAAMABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAVABSAFUARQAgAGkAZgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAgAGkAcwAgAGQAZQBmAGkAbgBlAGQAIABhAHMAIABuAG8AdAAgAGcAbABvAGIAYQBsAGwAeQAgAHIAZQBhAGMAaABhAGIAbABlACAAYgB5ACAAaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AFwAbgAgACoAIABlAHgAYwBlAHAAdAAgAGYAbwByACAAMQAwADAALgA2ADQALgAwAC4AMAAvADEAMAAgAHcAaABpAGMAaAAgAGkAcwAgAEYAQQBMAFMARQAuAFwAbgAgACoAIABoAHQAdABwAHMAOgAvAC8AdwB3AHcALgBpAGEAbgBhAC4AbwByAGcALwBhAHMAcwBpAGcAbgBtAGUAbgB0AHMALwBpAGEAbgBhAC0AaQBwAHYANAAtAHMAcABlAGMAaQBhAGwALQByAGUAZwBpAHMAdAByAHkALwBpAGEAbgBhAC0AaQBwAHYANAAtAHMAcABlAGMAaQBhAGwALQByAGUAZwBpAHMAdAByAHkALgB4AGgAdABtAGwAXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHAAcgBpAHYAYQB0AGUAKABcACIAMQA5ADIALgAwAC4AMgAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFQAUgBVAEUAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBzAF8AcAByAGkAdgBhAHQAZQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADEAOQAxADUAOQAwADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADYAMQAxADAAMgAwADcAXAAiACkAKQApACwAIAAgACAAIAAgACAAIAAgAC8ALwAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAAgACAAIAAgACAAIABTAGgAYQByAGUAZAAgAEEAZABkAHIAZQBzAHMAIABTAHAAYQBjAGUALAAgAG4AZQBpAHQAaABlAHIAIABwAHIAaQB2AGEAdABlACAAbgBvAHIAIABnAGwAbwBiAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADUAXAAiACkAKQApACAAKwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMAAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAaQBzACAAbgBlAHQAdwBvAHIAawBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADYAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMQA4ADQANQA0ADkAMwA3ADUAXAAiACkAKQApACAAKwAgACAAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOAAgACAAIAAgACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADEAMwAwADcAMAA2ADQAMwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADEANAA3ADQAOAAzADYANAA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQAyADcALgAwAC4AMAAuADAALwA4ACAAIAAgACAAIAAgACAAIAAgAEwAbwBvAHAAYgBhAGMAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA1ADEAOQA5ADUANgA0ADgAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA1ADIAMAA2ADEAMQA4ADMAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADYAOQAuADIANQA0AC4AMAAuADAALwAxADYAIAAgACAAIAAgACAATABpAG4AawAgAEwAbwBjAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA4ADYANwAyADkANwAyADgAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA4ADcANwA3ADgAMwAwADMAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADcAMgAuADEANgAuADAALgAwAC8AMQAyACAAIAAgACAAIAAgACAAUAByAGkAdgBhAHQAZQAtAFUAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA0ADcAMgBcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA3ADIANwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADAALgAwAC8AMgA0ACAAIAAgACAAIAAgACAAIABJAEUAVABGACAAUAByAG8AdABvAGMAbwBsACAAQQBzAHMAaQBnAG4AbQBlAG4AdABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA2ADQAMgBcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA2ADQAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADAALgAxADcAMAAvADMAMQAgACAAIAAgACAAIABOAEEAVAA2ADQALwBEAE4AUwA2ADQAIABEAGkAcwBjAG8AdgBlAHIAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUAOQA4ADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADYAMgAzADkAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADkAMgAuADAALgAyAC4AMAAvADIANAAgACAAIAAgACAAIAAgACAARABvAGMAdQBtAGUAbgB0AGEAdABpAG8AbgAgACgAVABFAFMAVAAtAE4ARQBUAC0AMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADMAMgAyADMANQA1ADIAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADMAMgAzADAAMQAwADUANQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADEANgAgACAAIAAgACAAIABQAHIAaQB2AGEAdABlAC0AVQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgAzADAANgA4ADQAMQA2AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgAzADEAOQA5ADQAOAA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADgALgAxADgALgAwAC4AMAAvADEANQAgACAAIAAgACAAIAAgAEIAZQBuAGMAaABtAGEAcgBrAGkAbgBnAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAzADIANQAyADUANgA3ADAANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAzADIANQAyADUANgA5ADUAOQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQA4AC4ANQAxAC4AMQAwADAALgAwAC8AMgA0ACAAIAAgACAAIABEAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACAAKABUAEUAUwBUAC0ATgBFAFQALQAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADQAMAA1ADgAMAAzADcANwA2AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADQAMAA1ADgAMAA0ADAAMwAxAFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMgAwADMALgAwAC4AMQAxADMALgAwAC8AMgA0ACAAIAAgACAAIAAgAEQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4AIAAoAFQARQBTAFQALQBOAEUAVAAtADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADQAMAAyADYANQAzADEAOAA0ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAyADQAMAAuADAALgAwAC4AMAAvADQAIAAgACAAIAAgACAAIAAgACAAUgBlAHMAZQByAHYAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAZgBpAHIAcwB0AGQAZQBjACAAPQAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA1AFwAIgApACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA1ADUALwAzADIAIAAgAEwAaQBtAGkAdABlAGQAIABCAHIAbwBhAGQAYwBhAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGUAIABhAGQAZAByAGUAcwBzACAAaQBzACAAbgBvAHQAIABkAGUAZgBpAG4AZQBkACAAYQBzACAAbgBvAHQAIABnAGwAbwBiAGEAbABsAHkAIAByAGUAYQBjAGgAYQBiAGwAZQAgAGIAeQAgAGkAYQBuAGEALQBpAHAAdgA0AC0AcwBwAGUAYwBpAGEAbAAtAHIAZQBnAGkAcwB0AHIAeQBcAG4AIAAqACAAZQB4AGMAZQBwAHQAIABmAG8AcgAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAB3AGgAaQBjAGgAIABpAHMAIABGAGEAbABzAGUALgBcAG4AIAAqACAAaAB0AHQAcABzADoALwAvAHcAdwB3AC4AaQBhAG4AYQAuAG8AcgBnAC8AYQBzAHMAaQBnAG4AbQBlAG4AdABzAC8AaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AC8AaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AC4AeABoAHQAbQBsAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBnAGwAbwBiAGEAbAAoAFwAIgAxADkAMgAuADAALgAyAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHMAXwBnAGwAbwBiAGEAbAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADEAOQAxADUAOQAwADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADYAMQAxADAAMgAwADcAXAAiACkAKQApACwAIAAgACAAIAAgACAAIAAgAC8ALwAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAAgACAAIAAgACAAIABTAGgAYQByAGUAZAAgAEEAZABkAHIAZQBzAHMAIABTAHAAYQBjAGUALAAgAG4AZQBpAHQAaABlAHIAIABwAHIAaQB2AGEAdABlACAAbgBvAHIAIABnAGwAbwBiAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADUAXAAiACkAKQApACAAKwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMAAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAaQBzACAAbgBlAHQAdwBvAHIAawBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADYAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMQA4ADQANQA0ADkAMwA3ADUAXAAiACkAKQApACAAKwAgACAAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOAAgACAAIAAgACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAMQAzADAANwAwADYANAAzADIAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAMQA0ADcANAA4ADMANgA0ADcAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADIANwAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAATABvAG8AcABiAGEAYwBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMQA5ADkANQA2ADQAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMgAwADYAMQAxADgAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEANgA5AC4AMgA1ADQALgAwAC4AMAAvADEANgAgACAAIAAgACAAIABMAGkAbgBrACAATABvAGMAYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADgANgA3ADIAOQA3ADIAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADgANwA3ADcAOAAzADAAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEANwAyAC4AMQA2AC4AMAAuADAALwAxADIAIAAgACAAIAAgACAAIABQAHIAaQB2AGEAdABlAC0AVQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADQANwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADcAMgA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAwAC4AMAAuADAALwAyADQAIAAgACAAIAAgACAAIAAgAEkARQBUAEYAIABQAHIAbwB0AG8AYwBvAGwAIABBAHMAcwBpAGcAbgBtAGUAbgB0AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADYANAAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADYANAAzAFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAwAC4AMAAuADEANwAwAC8AMwAxACAAIAAgACAAIAAgAE4AQQBUADYANAAvAEQATgBTADYANAAgAEQAaQBzAGMAbwB2AGUAcgB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA5ADgANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANgAyADMAOQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADIALgAwAC8AMgA0ACAAIAAgACAAIAAgACAAIABEAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACAAKABUAEUAUwBUAC0ATgBFAFQALQAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMwAyADIAMwA1ADUAMgAwAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMwAyADMAMAAxADAANQA1AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMQA2ACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMwAyADMAMAA2ADgANAAxADYAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMwAyADMAMQA5ADkANAA4ADcAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADkAOAAuADEAOAAuADAALgAwAC8AMQA1ACAAIAAgACAAIAAgACAAQgBlAG4AYwBoAG0AYQByAGsAaQBuAGcAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgA1ADIANQA2ADcAMAA0AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgA1ADIANQA2ADkANQA5AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADgALgA1ADEALgAxADAAMAAuADAALwAyADQAIAAgACAAIAAgAEQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4AIAAoAFQARQBTAFQALQBOAEUAVAAtADIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMANAAwADUAOAAwADMANwA3ADYAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMANAAwADUAOAAwADQAMAAzADEAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAyADAAMwAuADAALgAxADEAMwAuADAALwAyADQAIAAgACAAIAAgACAARABvAGMAdQBtAGUAbgB0AGEAdABpAG8AbgAgACgAVABFAFMAVAAtAE4ARQBUAC0AMwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADIANAAwAC4AMAAuADAALgAwAC8ANAAgACAAIAAgACAAIAAgACAAIABSAGUAcwBlAHIAdgBlAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABmAGkAcgBzAHQAZABlAGMAIAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADUANQAvADMAMgAgACAATABpAG0AaQB0AGUAZAAgAEIAcgBvAGEAZABjAGEAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAIAA9ACAAMABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABUAFIAVQBFACAAaQBmACAAdABoAGkAcwAgAGkAcwAgAHQAaABlACAAdQBuAHMAcABlAGMAaQBmAGkAZQBkACAAYQBkAGQAcgBlAHMAcwAgAGEAcwAgAGQAZQBmAGkAbgBlAGQAIABpAG4AIABSAEYAQwAgADUANwAzADUAIAAzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAoAFwAIgAwAC4AMAAuADAALgAwAFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgADAAKQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAwAC4AMAAuADAALgAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAgAD4AIAAwAFwAbgBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAFQAUgBVAEUAIABpAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIAB3AGkAdABoAGkAbgAgAHQAaABlACAAcgBlAHMAZQByAHYAZQBkACAASQBFAFQARgAgAEkAUAB2ADQAIABOAGUAdAB3AG8AcgBrACAAcgBhAG4AZwBlAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHIAZQBzAGUAcgB2AGUAZAAoAFwAIgAyADQAMAAuADAALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHMAXwByAGUAcwBlAHIAdgBlAGQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADQAMAAyADYANQAzADEAOAA0ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAyADQAMAAuADAALgAwAC4AMAAvADQAXABuACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFQAUgBVAEUAIABpAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIAByAGUAcwBlAHIAdgBlAGQAIABmAG8AcgAgAG0AdQBsAHQAaQBjAGEAcwB0ACAAdQBzAGUALgAgAFMAZQBlACAAUgBGAEMAIAAzADEANwAxAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACgAXAAiADIANAAwAC4AMQAuADEALgAwAC8AMgA0AFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwA3ADUAOAAwADkANgAzADgANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADMAOQBcACIAKQApACkAIAA+ACAAMAAgACAAIAAvAC8AIAAyADIANAAuADAALgAwAC4AMAAvADQAXABuAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGkAcwAgAGkAcwAgAGEAIABsAG8AbwBwAGIAYQBjAGsAIABhAGQAZAByAGUAcwBzAC4AIABTAGUAZQAgAFIARgBDACAAMwAzADMAMAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBsAG8AbwBwAGIAYQBjAGsAKABcACIAMQAyADcALgAwAC4AMAAuADEALwAzADIAXAAiACkAIAA9AD0APgAgAFQAUgBVAEUAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBzAF8AbABvAG8AcABiAGEAYwBrACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADEAMwAwADcAMAA2ADQAMwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADEANAA3ADQAOAAzADYANAA3AFwAIgApACkAKQAgACAAIAAvAC8AIAAxADIANwAuADAALgAwAC4AMAAvADgAXABuACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGUAIABhAGQAZAByAGUAcwBzACAAaQBzACAAcgBlAHMAZQByAHYAZQBkACAAZgBvAHIAIABsAGkAbgBrAC0AbABvAGMAYQBsACAAdQBzAGEAZwBlAC4AIABTAGUAZQAgAFIARgBDACAAMwA5ADIANwAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBsAGkAbgBrAF8AbABvAGMAYQBsACgAXAAiADEANgA5AC4AMgA1ADQALgAxADAALgAxAC8AMwAyAFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuACAAaQBzAF8AbABpAG4AawBfAGwAbwBjAGEAbAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMQA5ADkANQA2ADQAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMgAwADYAMQAxADgAMwBcACIAKQApACkAIAAgACAALwAvACAAMQA2ADkALgAyADUANAAuADAALgAwAC8AMQA2AFwAbgAgACAAIAAgACAAIAAgACAAKQAgAD4AIAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAdgBlAHIAcwBlACAARABOAFMAIABwAG8AaQBuAHQAZQByACAAbgBhAG0AZQAgAGYAbwByACAAdABoAGUAIABJAFAAdgA0ACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABUAGgAaQBzACAAaQBtAHAAbABlAG0AZQBuAHQAcwAgAHQAaABlACAAbQBlAHQAaABvAGQAIABkAGUAcwBjAHIAaQBiAGUAZAAgAGkAbgAgAFIARgBDADEAMAAzADUAIAAzAC4ANQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIAByAGUAdgBlAHIAcwBlAF8AcABvAGkAbgB0AGUAcgAoAFwAIgAxADYAOQAuADIANQA0AC4AMQAwAC4AMQAvADMAMgBcACIAKQAgAD0APQA+ACAAMQAuADEAMAAuADIANQA0AC4AMQA2ADkALgBpAG4ALQBhAGQAZAByAC4AYQByAHAAYQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgByAGUAdgBlAHIAcwBlAF8AcABvAGkAbgB0AGUAcgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMgAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAXAAiAC4AXAAiACwAIAAyACkALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAzACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAXAAiAC4AXAAiACwAIAAzACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAbwBjAHQAZQB0ADEAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADEAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAyACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAyACAAPgAgADIANQA1ACkAIAArACAAKABvAGMAdABlAHQAMwAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMwAgAD4AIAAyADUANQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABvAGMAdABlAHQANAAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQANAAgAD4AIAAyADUANQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQANAAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADMAIAAmACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAyACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMQAgACYAIABcACIALgBpAG4ALQBhAGQAZAByAC4AYQByAHAAYQBcACIAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABCAEkATgBBAFIAWQAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABQAGUAcgBmAG8AcgBtACAAYQAgAGIAaQB0AHcAaQBzAGUAIABOAE8AVAAgAG8AbgAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGQAZQBjADoAIABhACAAcQB1AGEAZAAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApAFwAbgAgACoAIABiAGkAdABzADoAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAYgBpAHQAcwAgAHQAbwAgAHAAZQByAGYAbwByAG0AIAB0AGgAZQAgAEIASQBUAFcASQBTAEUAIABvAG4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAZABlAGMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApACAAPQA9AD4AIAAzADIAMwAyADIAMwA1ADUAMgAxAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAEIASQBUAE4ATwBUACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGQAZQBjACwAIABiAGkAdABzACwAXABuACAAIAAgACAAQgBJAFQAWABPAFIAKABCAEkAVABMAFMASABJAEYAVAAoADEALAAgAGIAaQB0AHMAKQAgAC0AIAAxACwAIABpAHAAZABlAGMAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEkAUAAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB2AGUAcgB5ACAAZgBpAHIAcwB0ACAAYQBkAGQAcgBlAHMAcwAgAG8AZgAgAGEAIABzAHUAYgBuAGUAdAAuACAASQB0ACAAaQBzACAAdABoAGUAIABuAGUAdAB3AG8AcgBrAFwAbgAgACoAIABhAGQAZAByAGUAcwBzACAAYQBuAGQAIABhAGwAcwBvACAAdABoAGUAIABmAGkAcgBzAHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAcwAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAQgBJAFQAQQBOAEQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB2AGUAcgB5ACAAbABhAHMAdAAgAGEAZABkAHIAZQBzAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgAgAEkAdAAgAGkAcwAgAHQAaABlACAAYgByAG8AYQBkAGMAYQBzAHQAXABuACAAKgAgAGEAZABkAHIAZQBzAHMAIABhAG4AZAAgAGEAbABzAG8AIAB0AGgAZQAgAGwAYQBzAHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAcwAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgAEIASQBUAE8AUgAoAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsACAAQgBJAFQATgBPAFQAKABwAGYAeABkAGUAYwAsACAAMwAyACkAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAaQByAHMAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AIABJAHQAIABpAHMAIAB0AGgAZQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGEAZABkAHIAZQBzAHMAIAArACAAMQAgAGUAeABjAGUAcAB0ACAAZgBvAHIAIAAvADMAMQAgAGEAbgBkACAALwAzADIAIABuAGUAdAB3AG8AcgBrAHMAIABmAG8AcgAgAHcAaABpAGMAaAAgAGkAdAAgAGkAcwAgAHQAaABlAFwAbgAgACoAIABuAGUAdAB3AG8AcgBrACAAYQBkAGQAcgBlAHMAcwBcAG4AIAAqACAAXABuACAAKgAgAGkAcABkAGUAYwA6ACAAdABoAGUAIABoAG8AcwB0ACAAcABhAHIAdAAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAgAHAAZgB4AGQAZQBjADoAIAB0AGgAZQAgAG4AZQB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACoALwBcAG4AXwBmAGkAcgBzAHQAaABvAHMAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAFMAVwBJAFQAQwBIACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAIABeACAAMwAyACAALQAgADIALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFAAcgBlAGYAaQB4ACAALwAzADEAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIASQBUAEEATgBEACgAbgBlAHQAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMgAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQAQQBOAEQAKABuAGUAdABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAgACsAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbABhAHMAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AIABJAHQAIABpAHMAIAB0AGgAZQAgAGIAcgBvAGEAZABjAGEAcwB0AFwAbgAgACoAIABhAGQAZAByAGUAcwBzACAALQAgADEAIABlAHgAYwBlAHAAdAAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzACAAZgBvAHIAIAB3AGgAaQBjAGgAIABpAHQAIABpAHMAIAB0AGgAZQBcAG4AIAAqACAAYgByAG8AYQBkAGMAYQBzAHQAIABhAGQAZAByAGUAcwBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGwAYQBzAHQAaABvAHMAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHYAcABmAHgAZABlAGMALAAgAEIASQBUAE4ATwBUACgAcABmAHgAZABlAGMALAAgADMAMgApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMgAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMQAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQATwBSACgAbgBlAHQAZABlAGMALAAgAGkAbgB2AHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMgAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQATwBSACgAbgBlAHQAZABlAGMALAAgAGkAbgB2AHAAZgB4AGQAZQBjACkAIAAtACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHAAcgBlAHYAaQBvAHUAcwAgAHMAdQBiAG4AZQB0ACAAaQBuACAAZABlAGMAaQBtAGEAbAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAHAAcgBlAHYAaQBvAHUAcwBzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AGQAZQBjACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABuAGUAdABkAGUAYwAgAC0AIABCAEkAVABOAE8AVAAoAHAAZgB4AGQAZQBjACwAIAAzADIAKQAgAC0AIAAxAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAbgBlAHQAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAZABlAGMAOgAgAHQAaABlACAAaABvAHMAdAAgAHAAYQByAHQAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACoAIABwAGYAeABkAGUAYwA6ACAAdABoAGUAIABuAGUAdABtAGEAcwBrACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqAC8AXABuAF8AbgBlAHgAdABzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAgACsAIAAxAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAASQBQACAAQwBvAG4AdgBlAHIAcwBpAG8AbgAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAbwB0AHQAZQBkACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAHMAdAByAGkAbgBnACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGQAbwB0ADoAIABhACAAcQB1AGEAZAAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBkAG8AdAAyAGQAZQBjACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAKQAgAD0APQA+ACAAMwAyADMAMgAyADMANQA1ADIAMQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAbwB0ADIAZABlAGMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABvAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgAsACAAMgApACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMwAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAIAAoAG8AYwB0AGUAdAAxACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAxACAAPgAgADIANQA1ACkAIAArACAAKABvAGMAdABlAHQAMgAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMgAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADMAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADMAIAA+ACAAMgA1ADUAKQAgACsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwBjAHQAZQB0ADQAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADQAIAA+ACAAMgA1ADUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABvAGMAdABlAHQAMQAgACoAIAAyADUANgAgAF4AIAAzACkAIAArACAAKABvAGMAdABlAHQAMgAgACoAIAAyADUANgAgAF4AIAAyACkAIAArACAAKABvAGMAdABlAHQAMwAgACoAIAAyADUANgApACAAKwAgACgAbwBjAHQAZQB0ADQAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgAGEAIABxAHUAYQBkACAAZABvAHQAdABlAGQAIABkAGUAYwBpAG0AYQBsACAAaQBwACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABpAHAAZABlAGMAOgAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAbgAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIAAzADIAMwAyADIAMwA1ADUAMgAxACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAZABlAGMAKAAzADIAMwAyADIAMwA1ADUAMgAxACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAF8AZABlAGMAMgBkAG8AdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAIAAoAGkAcABkAGUAYwAgADwAIAAwACkAIAArACAAKABpAHAAZABlAGMAIAA+ACAAKAAyACAAXgAgADMAMgAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABCAEkAVABSAFMASABJAEYAVAAoAGkAcABkAGUAYwAsACAAMgA0ACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBUAEEATgBEACgAQgBJAFQAUgBTAEgASQBGAFQAKABpAHAAZABlAGMALAAgADEANgApACwAIAAyADUANQApACAAJgAgAFwAIgAuAFwAIgAgACYAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQAQQBOAEQAKABCAEkAVABSAFMASABJAEYAVAAoAGkAcABkAGUAYwAsACAAOAApACwAIAAyADUANQApACAAJgAgAFwAIgAuAFwAIgAgACYAIABCAEkAVABBAE4ARAAoAGkAcABkAGUAYwAsACAAMgA1ADUAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABxAHUAYQBkACAAZABvAHQAdABlAGQAIABkAGUAYwBpAG0AYQBsACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAGkAbgB0AG8AIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAC4AXABuACAAKgAgAGkAcABkAG8AdAA6ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQBuACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgACgAaQAuAGUALgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAYgBpAG4AKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApACAAPQA9AD4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAbwB0ADIAYgBpAG4AIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABvAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgAsACAAMgApACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMwAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABvAGMAdABlAHQAMQAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMQAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPgAgADIANQA1ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAG8AYwB0AGUAdAA0ACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAA0ACAAPgAgADIANQA1ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIAQQBTAEUAKABvAGMAdABlAHQAMQAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQAMgAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQAMwAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQANAAsACAAMgAsACAAOAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAQwBvAG4AdgBlAHIAdAAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIABpAG4AdABvACAAYQAgAHEAdQBhAGQAIABkAG8AdAB0AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABpAHAAIABhAGQAZAByAGUAcwBzAC4AXABuACAAKgAgAGkAcABkAG8AdAA6ACAAYQAgADMAMgAgAGIAaQB0ACAAYgBpAG4AYQByAHkAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQBuACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgACgAaQAuAGUALgAgAFwAIgAxADEAMAAwADAAMAAwADAAMQAwADEAMAAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAXAAiACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGIAaQBuADIAZABvAHQAKABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGIAaQBuADIAZABvAHQAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABcAG4AIAAgACAAIABCAEkATgAyAEQARQBDACgATABFAEYAVAAoAGMAZQBsAGwAcwAsACAAOAApACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBOADIARABFAEMAKABNAEkARAAoAGMAZQBsAGwAcwAsACAAOQAsACAAOAApACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBOADIARABFAEMAKABNAEkARAAoAGMAZQBsAGwAcwAsACAAMQA3ACwAIAA4ACkAKQAgACYAIABcACIALgBcACIAIAAmAFwAbgAgACAAIAAgACAAIAAgACAAQgBJAE4AMgBEAEUAQwAoAE0ASQBEACgAYwBlAGwAbABzACwAIAAyADUALAAgADgAKQApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAQwBvAG4AdgBlAHIAdAAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAbgAgAEkAUAAgAGEAZABkAHIAZQBzAHMAIABpAG4AdABvACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAuAFwAbgAgACoAIABpAHAAYgBpAG4AOgAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIAAoAGkALgBlAC4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBiAGkAbgAyAGQAZQAoAFwAIgAxADEAMAAwADAAMAAwADAAMQAwADEAMAAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAXAAiACkAIAA9AD0APgAgADMAMgAzADIAMgAzADUANQAyADEAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AXwBiAGkAbgAyAGQAZQBjACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGIAaQBuACwAIABEAEUAQwBJAE0AQQBMACgAaQBwAGIAaQBuACwAIAAyACkAKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhAG4AIABJAFAAIABhAGQAZAByAGUAcwBzACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGIAaQBuADoAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAKABpAC4AZQAuACAAMwAyADMAMgAyADMANQA1ADIAMQApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBkAGUAYwAyAGIAaQBuACgAMwAyADMAMgAyADMANQA1ADIAMQApACAAPQA9AD4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAZQBjADIAYgBpAG4AIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABlAGMALABcAG4AIAAgACAAIABCAEEAUwBFACgAaQBwAGQAZQBjACwAIAAyACwAIAAzADIAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhACAASQBQACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgACgAMAAgAHQAbwAgADMAMgApACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAALgBcAG4AIAAqACAAaQBwAGIAaQBuADoAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAKABpAC4AZQAuACAAMwAyADMAMgAyADMANQA1ADIAMQApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQAoADgAKQAgAD0APQA+ACAAXAAiADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4ALwAvACAAXwBwAGYAeAAyAGIAaQBuACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4ALwAvACAAIAAgACAAIAAvAC8AIABDAGEAbABjAHUAbABhAHQAZQBkACAAdgBlAHIAcwBpAG8AbgBcAG4ALwAvACAAIAAgACAAIABJAEYAKAAoAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAcABmAHgAIAA8ACAAMAApACAAKwAgACgAcABmAHgAIAA+ACAAMwAyACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAFIARQBQAFQAKABcACIAMQBcACIALAAgAHAAZgB4ACkAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAMwAyACAALQAgAHAAZgB4ACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBwAGYAeAAyAGIAaQBuACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFwAIgAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABcACIAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAXAAiADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFwAIgAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABcACIAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAXAAiADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFwAIgAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABcACIAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAXAAiADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADAALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAxACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEAMgAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADMALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQA0ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEANQAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADYALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQA3ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEAOAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADkALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAwACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIAMQAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADIALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAzACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIANAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADUALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgA2ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIANwAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADgALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgA5ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMAMAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAzADEALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAyACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhAG4AIABJAFAAIABtAGEAcwBrACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAIABJAFAAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAKAAwACAAdABvACAAMwAyACkALgBcAG4AIAAqACAAbQBhAHMAawBiAGkAbgA6ACAAYQAgADMAMgAgAGIAaQB0ACAAYgBpAG4AYQByAHkAIABzAHQAcgBpAG4AZwBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAF8AYgBpAG4AMgBwAGYAeAAoAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACkAIAA9AD0APgAgADgAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4ALwAvACAAXwBiAGkAbgAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAawBiAGkAbgAsAFwAbgAvAC8AIAAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlAGQAIAB2AGUAcgBzAGkAbwBuAFwAbgAvAC8AIAAgACAAIAAgAEkARgAoAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAKABGAEkATgBEACgAXAAiADAAXAAiACwAIABtAGEAcwBrAGIAaQBuACAAJgAgAFwAIgAwAFwAIgApACAALQAgADEAIAA9ACAATABFAE4AKABtAGEAcwBrAGIAaQBuACkAIAAtACAATABFAE4AKABTAFUAQgBTAFQASQBUAFUAVABFACgAbQBhAHMAawBiAGkAbgAsACAAXAAiADEAXAAiACwAIABcACIAXAAiACkAKQApACAAKgAgAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEYASQBOAEQAKABcACIAMABcACIALAAgAG0AYQBzAGsAYgBpAG4AIAAmACAAXAAiADAAXAAiACkAIAA+ACAAMQApACwAXABuAC8ALwAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXAAiADAAXAAiACwAIABtAGEAcwBrAGIAaQBuACAAJgAgAFwAIgAwAFwAIgApACAALQAgADEALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBiAGkAbgAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA0ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAyACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgA0ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwAFwAIgAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwAFwAIgAsACAAMgA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwAFwAIgAsACAAMgA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwAFwAIgAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwAFwAIgAsACAAMgA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwAFwAIgAsACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwAFwAIgAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxAFwAIgAsACAAMwAyACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAEkAUAAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAAoADAAIAB0AG8AIAAzADIAKQAgAGkAbgB0AG8AIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByAC4AXABuACAAKgAgAHAAZgB4ADoAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQBjACgAOAApACAAPQA9AD4AIAA0ADIANwA4ADEAOQAwADAAOAAwAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAC8ALwAgAF8AcABmAHgAMgBkAGUAYwAgAD0AIABMAEEATQBCAEQAQQAoAHAAZgB4ACwAXABuAC8ALwAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AXABuAC8ALwAgACAAIAAgACAATABFAFQAKABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AIAAzADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuAC8ALwAgACAAIAAgACAAIAAgACAAIABfAGIAaQBuADIAZABlAGMAKABfAHAAZgB4ADIAYgBpAG4AKABwAGYAeAApACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBwAGYAeAAyAGQAZQBjACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFYAQQBMAFUARQAoAFwAIgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABWAEEATABVAEUAKABcACIAMgAxADQANwA0ADgAMwA2ADQAOABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFYAQQBMAFUARQAoAFwAIgAzADcANQA4ADAAOQA2ADMAOAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAVgBBAEwAVQBFACgAXAAiADQAMQA2ADAANwA0ADkANQA2ADgAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAMgA3ADgANQA4ADQAMwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABWAEEATABVAEUAKABcACIANAAyADYAMQA0ADEAMgA4ADYANABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAVgBBAEwAVQBFACgAXAAiADQAMgA3ADgAMQA5ADAAMAA4ADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOAA2ADUANwA4ADYAOAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAwADcANwAyADkAOQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAyADgANwAwADEANAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAzADkAMQA4ADcAMgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADMALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADQANAAzADAAMAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADQALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADcAMAA1ADEANQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADUALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADgAMwA2ADIAMgA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkAMAAxADcANgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADcALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkAMwA0ADUAMgA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADgALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANQAwADkAMQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANQA5ADEAMAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgAzADIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA1ADIANAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA2ADIANwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADMALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA2ADcAOAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADQALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADAANAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADUALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADEANgA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAMwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADcALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIANgA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADgALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA1AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAG0AYQBzAGsAIABpAG4AdABvACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhACAASQBQACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgACgAMAAgAHQAbwAgADMAMgApAC4AXABuACAAKgAgAHAAZgB4ADoAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQBjACgAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiACkAIAA9AD0APgAgADIANABcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgAvAC8AIABfAGQAbwB0ADIAcABmAHgAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBrAGQAbwB0ACwAXABuAC8ALwAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AXABuAC8ALwAgACAAIAAgACAAXwBiAGkAbgAyAHAAZgB4ACgAXwBkAGUAYwAyAGIAaQBuACgAXwBkAG8AdAAyAGQAZQBjACgAbQBhAHMAawBkAG8AdAApACkAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBkAG8AdAAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwAC4AMAAuADAALgAwAFwAIgAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMgA4AC4AMAAuADAALgAwAFwAIgAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAOQAyAC4AMAAuADAALgAwAFwAIgAsACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIAMgA0AC4AMAAuADAALgAwAFwAIgAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANAAwAC4AMAAuADAALgAwAFwAIgAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANAA4AC4AMAAuADAALgAwAFwAIgAsACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQAyAC4AMAAuADAALgAwAFwAIgAsACAANgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA0AC4AMAAuADAALgAwAFwAIgAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMAAuADAALgAwAFwAIgAsACAAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMQAyADgALgAwAC4AMABcACIALAAgADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADEAOQAyAC4AMAAuADAAXAAiACwAIAAxADAALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIAMgA0AC4AMAAuADAAXAAiACwAIAAxADEALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANAAwAC4AMAAuADAAXAAiACwAIAAxADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANAA4AC4AMAAuADAAXAAiACwAIAAxADMALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQAyAC4AMAAuADAAXAAiACwAIAAxADQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA0AC4AMAAuADAAXAAiACwAIAAxADUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMAAuADAAXAAiACwAIAAxADYALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMQAyADgALgAwAFwAIgAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADEAOQAyAC4AMABcACIALAAgADEAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADIANAAuADAAXAAiACwAIAAxADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA0ADAALgAwAFwAIgAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANAA4AC4AMABcACIALAAgADIAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUAMgAuADAAXAAiACwAIAAyADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADQALgAwAFwAIgAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMABcACIALAAgADIANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADEAMgA4AFwAIgAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMQA5ADIAXAAiACwAIAAyADYALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADIANABcACIALAAgADIANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANAAwAFwAIgAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA0ADgAXAAiACwAIAAyADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADUAMgBcACIALAAgADMAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANQA0AFwAIgAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA1ADUAXAAiACwAIAAzADIALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAGUAdABtAGEAcwBrACAAaQBuAHQAbwAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAEkAUAAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAAoADAAIAB0AG8AIAAzADIAKQAuAFwAbgAgACoAIABwAGYAeABkAGUAYwA6ACAAYQAgADMAMgAgAGIAaQB0ACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIANgA0AFwAIgApACkAIAA9AD0APgAgADIANwBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AXwBkAGUAYwAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgAwAFwAIgApACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIAMgAxADQANwA0ADgAMwA2ADQAOABcACIAKQAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgAzADcANQA4ADAAOQA2ADMAOAA0AFwAIgApACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMQA2ADAANwA0ADkANQA2ADgAXAAiACkALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAMgA3ADgANQA4ADQAMwAyAFwAIgApACwAIAA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADYAMQA0ADEAMgA4ADYANABcACIAKQAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMgA3ADgAMQA5ADAAMAA4ADAAXAAiACkALAAgADgALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOAA2ADUANwA4ADYAOAA4AFwAIgApACwAIAA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMAA3ADcAMgA5ADkAMgBcACIAKQAsACAAMQAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMgA4ADcAMAAxADQANABcACIAKQAsACAAMQAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMwA5ADEAOAA3ADIAMABcACIAKQAsACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA0ADQAMwAwADAAOABcACIAKQAsACAAMQAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA3ADAANQAxADUAMgBcACIAKQAsACAAMQA0ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA4ADMANgAyADIANABcACIAKQAsACAAMQA1ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADAAMQA3ADYAMABcACIAKQAsACAAMQA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADMANAA1ADIAOABcACIAKQAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADUAMAA5ADEAMgBcACIAKQAsACAAMQA4ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADUAOQAxADAANABcACIAKQAsACAAMQA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYAMwAyADAAMABcACIAKQAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANQAyADQAOABcACIAKQAsACAAMgAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANgAyADcAMgBcACIAKQAsACAAMgAyACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANgA3ADgANABcACIAKQAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAwADQAMABcACIAKQAsACAAMgA0ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAxADYAOABcACIAKQAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADMAMgBcACIAKQAsACAAMgA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADYANABcACIAKQAsACAAMgA3ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADgAMABcACIAKQAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADgAOABcACIAKQAsACAAMgA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkAMgBcACIAKQAsACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANABcACIAKQAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANQBcACIAKQAsACAAMwAyACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBpAHAALgBmAHIAbwBtAF8AcAByAGUAZgBpAHgAbABlAG4AIgAsACIAaQBwAC4AZgByAG8AbQBfAG4AZQB0AG0AYQBzAGsAIgAsACIAaQBwAC4AZgByAG8AbQBfAGgAbwBzAHQAbQBhAHMAawAiACwAIgBpAHAALgBmAHIAbwBtAF8AYwBsAGEAcwBzAGYAdQBsACIALAAiAGkAcAAuAHcAaQB0AGgAXwBuAGUAdABtAGEAcwBrACIALAAiAGkAcAAuAHcAaQB0AGgAXwBoAG8AcwB0AG0AYQBzAGsAIgAsACIAaQBwAC4AcABhAGQAZABlAGQAIgAsACIAaQBwAC4AaABvAHMAdABfAG8AYwB0AGUAdABzACIALAAiAGkAcAAuAGkAcABfAGkAbgBfAGIAaQBuAGEAcgB5ACIALAAiAGkAcAAuAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAiACwAIgBpAHAALgBoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAiACwAIgBpAHAALgBpAHAAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACIALAAiAGkAcAAuAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACIALAAiAGkAcAAuAGgAbwBzAHQAbQBhAHMAawBfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIgAsACIAaQBwAC4AYwBoAGUAYwBrAGUAZAAiACwAIgBpAHAALgBpAHAAIgAsACIAaQBwAC4AcAByAGUAZgBpAHgAbABlAG4AIgAsACIAaQBwAC4AbgBlAHQAbQBhAHMAawAiACwAIgBpAHAALgBoAG8AcwB0AG0AYQBzAGsAIgAsACIAaQBwAC4AbgBlAHQAdwBvAHIAawBfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AYgByAG8AYQBkAGMAYQBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAG4AdQBtAF8AYQBkAGQAcgBlAHMAcwBlAHMAIgAsACIAaQBwAC4AZgBpAHIAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AbABhAHMAdABfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAHAAcgBlAHYAaQBvAHUAcwBfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAG4AZQB4AHQAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBpAG4AZABlAHgAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBwAHIAZQB2AGkAbwB1AHMAXwBzAHUAYgBuAGUAdAAiACwAIgBpAHAALgBuAGUAeAB0AF8AcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AaQBuAGQAZQB4AF8AcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AcwB1AGIAbgBlAHQAcwAiACwAIgBpAHAALgBoAG8AcwB0AHMAIgAsACIAaQBwAC4AcwB1AGIAbgBlAHQAXwBvAGYAIgAsACIAaQBwAC4AcwB1AHAAZQByAG4AZQB0AF8AbwBmACIALAAiAGkAcAAuAHMAdQBwAGUAcgBuAGUAdABfAGQAaQBmAGYAIgAsACIAaQBwAC4AcwB1AHAAZQByAG4AZQB0AF8AbgBlAHcAXwBwAHIAZQBmAGkAeAAiACwAIgBpAHAALgBzAG8AcgB0ACIALAAiAGkAcAAuAG8AZgBmAHMAZQB0ACIALAAiAGkAcAAuAG8AYwB0AGUAdABfAG8AZgBmAHMAZQB0ACIALAAiAGkAcAAuAGkAcwBfAHIAZgBjADEAOQAxADgAIgAsACIAaQBwAC4AaQBzAF8AcAByAGkAdgBhAHQAZQAiACwAIgBpAHAALgBpAHMAXwBnAGwAbwBiAGEAbAAiACwAIgBpAHAALgBpAHMAXwB1AG4AcwBwAGUAYwBpAGYAaQBlAGQAIgAsACIAaQBwAC4AaQBzAF8AcgBlAHMAZQByAHYAZQBkACIALAAiAGkAcAAuAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACIALAAiAGkAcAAuAGkAcwBfAGwAbwBvAHAAYgBhAGMAawAiACwAIgBpAHAALgBpAHMAXwBsAGkAbgBrAF8AbABvAGMAYQBsACIALAAiAGkAcAAuAHIAZQB2AGUAcgBzAGUAXwBwAG8AaQBuAHQAZQByACIALAAiAGkAcAAuAEIASQBUAE4ATwBUACIALAAiAGkAcAAuAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAF8AZgBpAHIAcwB0AGgAbwBzAHQAIgAsACIAaQBwAC4AXwBsAGEAcwB0AGgAbwBzAHQAIgAsACIAaQBwAC4AXwBwAHIAZQB2AGkAbwB1AHMAcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AXwBuAGUAeAB0AHMAdQBiAG4AZQB0ACIALAAiAGkAcAAuAF8AZABvAHQAMgBkAGUAYwAiACwAIgBpAHAALgBfAGQAZQBjADIAZABvAHQAIgAsACIAaQBwAC4AXwBkAG8AdAAyAGIAaQBuACIALAAiAGkAcAAuAF8AYgBpAG4AMgBkAG8AdAAiACwAIgBpAHAALgBfAGIAaQBuADIAZABlAGMAIgAsACIAaQBwAC4AXwBkAGUAYwAyAGIAaQBuACIALAAiAGkAcAAuAF8AcABmAHgAMgBiAGkAbgAiACwAIgBpAHAALgBfAGIAaQBuADIAcABmAHgAIgAsACIAaQBwAC4AXwBwAGYAeAAyAGQAZQBjACIALAAiAGkAcAAuAF8AZABvAHQAMgBwAGYAeAAiACwAIgBpAHAALgBfAGQAZQBjADIAcABmAHgAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBEAE0AWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAowAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQBnAGIAIgB9AH0A</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBpAHAAIgAsACIAdABlAHgAdAAiADoAIgAvACoAKgBcAG4AIAAqACAARQB4AGMAZQBsACAASQBQACAAQQBkAGQAcgBlAHMAcwAgAE0AYQBuAGkAcAB1AGwAYQB0AGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgBcAG4AIAAqACAAaAB0AHQAcABzADoALwAvAGcAaQBzAHQALgBnAGkAdABoAHUAYgAuAGMAbwBtAC8AbgBnAHIAaQBzAG8AbgAvADUANAA4ADMANgBhADIAZQAxADQAZgA3ADkAZABhADcANgAxADIAZgBlADcAYgA0AGMAYQA1AGUAZQA1ADMANgBcAG4AIAAqAFwAbgAgACoAIABBACAAYwBvAG0AcABsAGUAdABlACAAcwB1AGkAdABlACAAbwBmACAARQB4AGMAZQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAIAB0AG8AIABlAGEAcwBpAGwAeQAgAG0AYQBuAGkAcAB1AGwAYQB0AGUAIABJAFAAIABhAGQAZAByAGUAcwBzAGUAcwAuAFwAbgAgACoAIABBAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIABjAG8AbQBwAGEAdABpAGIAbABlACAAdwBpAHQAaAAgAEQAeQBuAGEAbQBpAGMAIABBAHIAcgBhAHkAcwAuAFwAbgAgACoAIABSAGUAYwBvAG0AbQBlAG4AZAAgAHQAbwAgAGkAbgBzAHQAYQBsAGwAIABpAG4AIABhACAAbgBlAHcAIABtAG8AZAB1AGwAZQAgAGMAYQBsAGwAZQBkACAAXAAiAGkAcABcACIAIABzAG8AIABhAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzAFwAbgAgACoAIABhAHIAZQAgAGEAdgBhAGkAbABhAGIAbABlACAAdQBuAGQAZQByACAAXAAiAGkAcAAuAFwAIgBcAG4AIAAqAFwAbgAgACoAIABDAG8AcAB5AHIAaQBnAGgAdAAgADIAMAAyADUAIABOAGkAYwBvAGwAYQBzACAARwByAGkAcwBvAG4AXABuACAAKgBcAG4AIAAqACAATABpAGMAZQBuAHMAZQBkACAAdQBuAGQAZQByACAAdABoAGUAIABBAHAAYQBjAGgAZQAgAEwAaQBjAGUAbgBzAGUALAAgAFYAZQByAHMAaQBvAG4AIAAyAC4AMAAgACgAdABoAGUAIABcACIATABpAGMAZQBuAHMAZQBcACIAKQA7AFwAbgAgACoAIAB5AG8AdQAgAG0AYQB5ACAAbgBvAHQAIAB1AHMAZQAgAHQAaABpAHMAIABmAGkAbABlACAAZQB4AGMAZQBwAHQAIABpAG4AIABjAG8AbQBwAGwAaQBhAG4AYwBlACAAdwBpAHQAaAAgAHQAaABlACAATABpAGMAZQBuAHMAZQAuAFwAbgAgACoAIABZAG8AdQAgAG0AYQB5ACAAbwBiAHQAYQBpAG4AIABhACAAYwBvAHAAeQAgAG8AZgAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGEAdABcAG4AIAAqAFwAbgAgACoAIAAgACAAIAAgAGgAdAB0AHAAOgAvAC8AdwB3AHcALgBhAHAAYQBjAGgAZQAuAG8AcgBnAC8AbABpAGMAZQBuAHMAZQBzAC8ATABJAEMARQBOAFMARQAtADIALgAwAFwAbgAgACoAXABuACAAKgAgAFUAbgBsAGUAcwBzACAAcgBlAHEAdQBpAHIAZQBkACAAYgB5ACAAYQBwAHAAbABpAGMAYQBiAGwAZQAgAGwAYQB3ACAAbwByACAAYQBnAHIAZQBlAGQAIAB0AG8AIABpAG4AIAB3AHIAaQB0AGkAbgBnACwAIABzAG8AZgB0AHcAYQByAGUAXABuACAAKgAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAgAHUAbgBkAGUAcgAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGkAcwAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAgAG8AbgAgAGEAbgAgAFwAIgBBAFMAIABJAFMAXAAiACAAQgBBAFMASQBTACwAXABuACAAKgAgAFcASQBUAEgATwBVAFQAIABXAEEAUgBSAEEATgBUAEkARQBTACAATwBSACAAQwBPAE4ARABJAFQASQBPAE4AUwAgAE8ARgAgAEEATgBZACAASwBJAE4ARAAsACAAZQBpAHQAaABlAHIAIABlAHgAcAByAGUAcwBzACAAbwByACAAaQBtAHAAbABpAGUAZAAuAFwAbgAgACoAIABTAGUAZQAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGYAbwByACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGMAIABsAGEAbgBnAHUAYQBnAGUAIABnAG8AdgBlAHIAbgBpAG4AZwAgAHAAZQByAG0AaQBzAHMAaQBvAG4AcwAgAGEAbgBkAFwAbgAgACoAIABsAGkAbQBpAHQAYQB0AGkAbwBuAHMAIAB1AG4AZABlAHIAIAB0AGgAZQAgAEwAaQBjAGUAbgBzAGUALgBcAG4AIAAqAFwAbgAgACoALwBcAG4AXABuAFwAbgAvACoAKgBcAG4AIAAqACAATgBvAHQAZQBzAFwAbgAgACoAIABcAG4AIAAqACAARABpAHIAZQBjAHQAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0ADoAXABuACAAKgAgAFwAbgAgACoAIABFAHgAYwBlAGwAIABpAG0AbQBlAGQAaQBhAHQAZQBsAHkAIABjAG8AbgB2AGUAcgB0AHMAIABEAGkAcgBlAGMAdAAgAG4AdQBtAGUAcgBpAGMAIABpAG4AcAB1AHQAIAB0AG8AIABmAGwAbwBhAHQAaQBuAGcALQBwAG8AaQBuAHQAIABhAG4AZABcAG4AIAAqACAAbgB1AG0AYgBlAHIAcwAgAGIAZQB5AG8AbgBkACAAMgBeADMAMQAgACgAMgAxADQANwA0ADgAMwA2ADQAOAApACAAbQBhAHkAIABsAG8AcwBlACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAHMAbwAgAGkAcwAgAG4AbwB0ACAAcwB1AGkAdABhAGIAbABlACAAXABuACAAKgAgAHQAbwAgAG0AYQBuAGEAZwBlACAAMwAyACAAYgBpAHQAIABpAHAAIABhAGQAZAByAGUAcwBzAGUAcwAuAFwAbgAgACoAIABcAG4AIAAqACAAVwBoAGUAbgAgAHkAbwB1ACAAdQBzAGUAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAwADQAMABcACIAKQAsACAARQB4AGMAZQBsACAAcABhAHIAcwBlAHMAIAB0AGgAZQAgAHQAZQB4AHQAIAByAGUAcAByAGUAcwBlAG4AdABhAHQAaQBvAG4AIABvAGYAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgAGEAIABcAG4AIAAqACAAcAByAGUAYwBpAHMAZQAgAG4AdQBtAGUAcgBpAGMAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAXABuACAAKgAgAD0ANAAyADkANAA5ADYANwAwADQAMAAgACAALQAtAD4AIABJAG4AYwBvAHIAcgBlAGMAdAAgAHYAYQBsAHUAZQAgAGQAdQBlACAAdABvACAAZgBsAG8AYQB0AGkAbgBnAC0AcABvAGkAbgB0ACAAcgBvAHUAbgBkAGkAbgBnAFwAbgAgACoAIAA9AFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADAANAAwAFwAIgApACAAIAAtAC0APgAgAEMAbwByAHIAZQBjAHQAIAB2AGEAbAB1AGUAIABiAGUAYwBhAHUAcwBlACAAaQB0ACcAcwAgAHAAYQByAHMAZQBkACAAZgByAGUAcwBoAFwAbgAgACoAIABcAG4AIAAqACAAVwBlACAAdABoAGUAcgBlAGYAbwByAGUAIAB1AHMAZQAgAFYAQQBMAFUARQAoACkAIABlAHYAZQByAHkAdwBoAGUAcgBlACAAdwBoAGUAbgAgAGUAbgB0AGUAcgBpAG4AZwAgAEkAUAAgAGEAZABkAHIAZQBzAHMAZQBzACAAaQBuACAAZABlAGMAaQBtAGEAbAAgAGYAbwByAG0AIABmAG8AcgAgAHMAcABlAGUAZAAuAFwAbgAgACoAXABuACAAKgBcAG4AIAAqACAAQQByAHIAYQB5ACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFMAbwAgAHQAaABhAHQAIABhAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIABhAHIAcgBhAHkAIABjAG8AbQBwAGEAdABpAGIAbABlACAAdwBlACAAYQB2AG8AaQBkACAAdQBzAGkAbgBnACAAYgB1AGkAbAB0AC0AaQBuACAARQB4AGMAZQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAIAB0AGgAYQB0AFwAbgAgACoAIABhAHIAZQAgAG4AbwB0ACAAYwBvAG0AcABhAHQAaQBiAGwAZQA6ACAAQQBOAEQAKAApACwAIABPAFIAKAApACwAIABUAEUAWABUAFMAUABMAEkAVAAoACkALgBcAG4AIAAqACAAXABuACAAKgAgAEEATgBEACgAKQA6ACAASQBuAHMAdABlAGEAZAAsACAAdwBlACAAdQBzAGUAIAAoACgAdABlAHMAdAAxACkAIAAqACAAKAB0AGUAcwB0ACAAMgApACkAIAA+ACAAMABcAG4AIAAqACAATwBSACgAKQA6ACAAIABJAG4AcwB0AGUAYQBkACwAIAB3AGUAIAB1AHMAZQAgACgAKAB0AGUAcwB0ADEAKQAgACsAIAAoAHQAZQBzAHQAIAAyACkAKQAgAD4AIAAwAFwAbgAgACoAXABuACAAKgAgAFQARQBYAFQAUwBQAEwASQBUACgAKQA6ACAASQBuAHMAdABlAGEAZAAsACAAdwBlACAAdQBzAGUAIAB0AGgAZQAgAGMAbABhAHMAcwBpAGMAcwAgAEYASQBOAEQAKAApACwAUwBFAEEAUgBDAEgAKAApACwATABFAEYAVAAoACkALABNAEkARAAoACkALAAgAFIASQBHAEgAVAAoACkAXABuACAAKgBcAG4AIAAqAC8AXABuAFwAbgBcAG4AXABuAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwBcAG4ALwAvACAAIAAgACAAIABGAE8AUgBNAEEAVABJAE4ARwAgAEYAVQBOAEMAVABJAE8ATgBTAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAFwAbgAvACoAKgBcAG4AIAAqACAATQBvAHMAdAAgAGYAdQBuAGMAdABpAG8AbgBzACAAIABpAG4AcAB1AHQAIABtAHUAcwB0ACAAYgBlACAAaQBuACAAdABoAGUAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAASQBmACAAeQBvAHUAcgAgAGQAYQB0AGEAIABmAG8AcgBtAGEAdAAgAGkAcwAgAGQAaQBmAGYAZQByAGUAbgB0ACwAIAB1AHMAZQAgAHQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAdABvAFwAbgAgACoAIABjAG8AbgB2AGUAcgB0AC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAsACAAXAAiAGkAcAAvAG4AZQB0AG0AYQBzAGsAXAAiACAAbwByACAAXAAiAGkAcAAvAGgAbwBzAHQAbQBhAHMAawBcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABbAHMAZQBwAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAdABoAGUAIABzAGUAcABhAHIAYQB0AG8AcgAgAHUAcwBlAGQAIAB0AG8AIABzAGUAcABhAHIAYQB0AGUAIAB0AGgAZQAgAEkAUAAgAGYAcgBvAG0AIAB0AGgAZQAgAHAAcgBlAGYAaQB4AC8AbgBlAHQAbQBhAHMAawAvAGgAbwBzAHQAbQBhAHMAawAuAFwAbgAgACoAIABEAGUAZgBhAHUAbAB0ACAAdABvACAAXAAiAC8AXAAiAC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABmAHIAbwBtAF8AcAByAGUAZgBpAHgAbABlAG4AKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxACAAbQBhAHMAawAgADIANABcACIALAAgAFwAIgAgAG0AYQBzAGsAIABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAXABuACAAKgAgAGYAcgBvAG0AXwBuAGUAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiAFwAbgAgACoAIABhAGQAZAByAGUAcwBzACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAgADAALgAwAC4AMAAuADIANQA1AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgBcAG4AIAAqAC8AXABuAGYAcgBvAG0AXwBwAHIAZQBmAGkAeABsAGUAbgAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAcwBlAHAAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAGUAcAAsAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAZgBpAHgAbABlAG4ALAAgAFQARQBYAFQAQQBGAFQARQBSACgAYwBlAGwAbABzACwAIABzAGUAcAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AcwB0AHIAaQBuAGcAIAAmACAAXAAiAC8AXAAiACAAJgAgAHAAcgBlAGYAaQB4AGwAZQBuAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAGYAcgBvAG0AXwBuAGUAdABtAGEAcwBrACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHMAZQBwACwAaQBmACgASQBTAE8ATQBJAFQAVABFAEQAKABzAGUAcAApACwAIABcACIALwBcACIALAAgAHMAZQBwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABfAHMAdAByAGkAbgBnACwAIABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABtAGEAcwBrACwAIABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcABfAHMAdAByAGkAbgBnACAAJgAgAFwAIgAvAFwAIgAgACYAIABfAGQAbwB0ADIAcABmAHgAKABuAGUAdABtAGEAcwBrACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AZgByAG8AbQBfAGgAbwBzAHQAbQBhAHMAawAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAcwBlAHAAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAGUAcAAsAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHMAdABtAGEAcwBrACwAIABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAgACYAIABcACIALwBcACIAIAAmACAAXwBiAGkAbgAyAHAAZgB4ACgAXwBkAGUAYwAyAGIAaQBuACgAQgBJAFQATgBPAFQAKABfAGQAbwB0ADIAZABlAGMAKABoAG8AcwB0AG0AYQBzAGsAKQAsADMAMgApACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAGkAcAAgAGEAZABkAHIAZQBzAHMAZQBzACAAdwBpAHQAaAAgAG4AbwAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAB3AGkAdABoACAAdABoAGUAIABjAG8AcgByAGUAYwB0ACAAYwBsAGEAcwBzAGYAdQBsACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAuAFwAbgAgACoAIABJAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIABmAG8AbABsAG8AdwBlAGQAIABiAHkAIABhACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAsACAAdABoAGEAdAAgAGkAbgB0AGUAcgBmAGEAYwBlACAAaQBzACAAcgBlAHQAdQByAG4AZQBkACAAYwBoAGUAYwBrAGUAZAAgAGIAdQB0AFwAbgAgACoAIAB1AG4AYwBoAGEAbgBnAGUAZAAuAFwAbgAgACoAIABJAGYAIABuAG8AIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAaQBzACAAcAByAG8AdgBpAGQAZQBkACwAIAB0AGgAZQAgAGQAZQBmAGEAdQBsAHQAIABzAHUAYgBuAGUAdAAgAG0AYQBzAGsAIABmAG8AcgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAgAGMAbABhAHMAcwAgAGkAcwAgAGEAZABkAGUAZAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcABcACIAIABvAHIAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGYAcgBvAG0AXwBjAGwAYQBzAHMAZgB1AGwAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBmAHIAbwBtAF8AYwBsAGEAcwBzAGYAdQBsACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBmAHMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADIAMQA0ADcANAA4ADMANgA0ADgAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAwACAAYQBuAGQAIAAxADIANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AOABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAxADIAOAAgAGEAbgBkACAAMQA5ADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAHAAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvADEANgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADMANwA1ADgAMAA5ADYAMwA4ADQAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAxADkAMgAgAGEAbgBkACAAMgAyADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAHAAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvADIANABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwA3ADUAOAAwADkANgAzADgANABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEYAbwByAG0AYQB0AHQAaQBuAGcAIABGAHUAbgBjAHQAaQBvAG4AcwAuACAATQBvAHMAdAAgAGYAdQBuAGMAdABpAG8AbgBzACAAcgBlAHQAdQByAG4AcwAgAGkAcAAgAGkAbgBmAG8AcgBtAGEAdABpAG8AbgAgAGkAbgAgAFwAbgAgACoAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAbABlAG4AXAAiACAAZgBvAHIAbQBhAHQALgAgAEkAZgAgAHkAbwB1ACAAZABlAHMAaQByAGUAIABhAG4AbwB0AGgAZQByACAAbwB1AHQAcAB1AHQALAAgAHUAcwBlACAAdABoAGUAcwBlAFwAbgAgACoAIABmAHUAbgBzAHQAaQBvAG4AIAB0AG8AIABmAG8AcgBtAGEAdABcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHcAaQB0AGgAXwBuAGUAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiAFwAbgAgACoAIAB3AGkAdABoAF8AaABvAHMAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADAALgAwAC4AMAAuADIANQA1AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AdwBpAHQAaABfAG4AZQB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAAaQBwACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACAAJgAgAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACAAJgAgAG4AZQB0AG0AYQBzAGsAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACkAOwBcAG4AXABuAHcAaQB0AGgAXwBoAG8AcwB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAAaQBwACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACAAJgAgAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACAAJgAgAGgAbwBzAHQAbQBhAHMAawAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAIABwAGEAZABkAGUAZAAgAHcAaQB0AGgAIAAwAHMAIABzAG8AIAB0AGgAYQB0ACAAdABoAGUAeQAgAGMAYQBuACAAYgBlACAAZQBhAHMAaQBsAHkAIABzAG8AcgB0AGUAZAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAZABvACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAdABoAGUAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoAFwAbgAgACoAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHAAbwBuAHMAZQAgAGkAZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABwAGEAZABkAGUAZAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwA4AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAAMAAwAC4AMAAwADEALwAwADgAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuACAAcABhAGQAZABlAGQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBjAGgAZQBjAGsAZQBkACwAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBjAGgAZQBjAGsAZQBkACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMgAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AYwBoAGUAYwBrAGUAZAAsACAAXAAiAC4AXAAiACwAIAAyACkALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAzACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBjAGgAZQBjAGsAZQBkACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AYwBoAGUAYwBrAGUAZAAsACAAXAAiAC4AXAAiACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAbwBjAHQAZQB0ADEALAAgAFwAIgAwADAAMABcACIAKQAgACYAIABcACIALgBcACIAIAAmAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAG8AYwB0AGUAdAAyACwAIABcACIAMAAwADAAXAAiACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAG8AYwB0AGUAdAAzACwAIABcACIAMAAwADAAXAAiACkAIAAmACAAXAAiAC4AXAAiACAAJgBcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKABvAGMAdABlAHQANAAsACAAXAAiADAAMAAwAFwAIgApACAAJgAgAEkARgAoAE4ATwBUACgAbwBtAGkAdABfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAKQAgACoAIABpAHMAXwBuAGUAdAAsACAAXAAiAC8AXAAiACAAJgAgAFQARQBYAFQAKABfAGQAZQBjADIAcABmAHgAKABwAGYAeABkAGUAYwApACwAXAAiADAAMABcACIAKQAsACAAXAAiAFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbwBjAHQAZQB0AHMAIABjAG8AcgByAGUAcwBwAG8AbgBkAGkAbgBnACAAdABvACAAdABoAGUAIABoAG8AcwB0ACAAcABhAHIAdAAgAG8AZgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABGAG8AcgAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABoAGkAZwBoAGUAcgAgAHQAaABhAG4AIAAyADQALAAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGwAYQBzAHQAIABvAGMAdABlAHQALgBcAG4AIAAqACAARgBvAHIAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAYgBlAHQAdwBlAGUAbgAgADEANgAgAGEAbgBkACAAMgAzACwAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAdAB3AG8AIABvAGMAdABlAHQAcwAuAFwAbgAgACoAIABGAG8AcgAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABiAGUAdAB3AGUAZQBuACAAOAAgAGEAbgBkACAAMQA1ACwAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAdABoAHIAZQBlACAAbwBjAHQAZQB0AHMALgBcAG4AIAAqACAARgBvAHIAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADcALAAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAdQBsAGwAIABJAFAAIABhAGQAZAByAGUAcwBzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGgAbwBzAHQAXwBvAGMAdABlAHQAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGgAbwBzAHQAXwBvAGMAdABlAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMQAsACAAVgBBAEwAVQBFACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGEAZABkAHIAZQBzAHMALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADIAKQAsACAAXAAiAC4AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADMALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGEAZABkAHIAZQBzAHMALAAgAFwAIgAuAFwAIgAsACAAMwApACwAIABcACIALgBcACIALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQANAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABvAGMAdABlAHQAMQAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMQAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPgAgADIANQA1ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAG8AYwB0AGUAdAA0ACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAA0ACAAPgAgADIANQA1ACkAIAArACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AMwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPgA9ACAAMgA0ACwAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAGYAeAAgAD4APQAgADEANgAsACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAzACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPgA9ACAAOAAsACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAyACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMwAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAGYAeAAgAD4APQAgADAALAAgAG8AYwB0AGUAdAAxACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMgAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADMAIAAmACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIABpAG4AIABiAGkAbgBhAHIAeQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHAAXwBpAG4AXwBiAGkAbgBhAHIAeQAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiACkAIAA9AD0APgAgAFwAIgAwAGIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHAAXwBpAG4AXwBiAGkAbgBhAHIAeQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwAGIAXAAiACAAJgAgAF8AZABvAHQAMgBiAGkAbgAoAGkAcABfAGEAZABkAHIAZQBzAHMAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGIAaQBuAGEAcgB5AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAwAGIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBuAGUAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcACIAMABiAFwAIgAgACYAIABfAHAAZgB4ADIAYgBpAG4AKABwAGYAeAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AcwB0AG0AYQBzAGsAIABpAG4AIABiAGkAbgBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAaABvAHMAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMABiADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAMQAxADEAMQAxADEAMQBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaABvAHMAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcACIAMABiAFwAIgAgACYAIABfAGQAZQBjADIAYgBpAG4AKABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAzADIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAHAAIABhAGQAZAByAGUAcwBzACAAaQBuACAAZABlAGMAaQBtAGEAbAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHAAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANQA1AFwAIgApACAAPQA9AD4AIAA0ADIAOQA0ADkANgA3ADIAOQA1AFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcABfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBhAGQAZAByAGUAcwBzACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADEAMAAuADAALgAwAC4AMAAvADgAXAAiACkAIAA9AD0APgAgADQAMgA3ADgAMQA5ADAAMAA4ADAAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHQAbQBhAHMAawBfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AcwB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADEAMAAuADAALgAwAC4AMAAvADgAXAAiACkAIAA9AD0APgAgADEANgA3ADcANwAyADEANQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAQgBJAFQATgBPAFQAKABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAMwAyACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAaABlAGMAawBlAGQAIABpAHAAIABwAHIAbwBwAGUAcgBsAHkAIABmAG8AcgBtAGEAdAB0AGUAZAAgAG8AcgAgAE4AQQAgAGkAZgAgAHQAaABlACAAaQBwACAAaQBzACAAaQBuAHYAYQBsAGkAZAAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAAXAAiACAAbwByACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABjAGgAZQBjAGsAZQBkACgAXAAiADEAMAAuADAAMAAuADAALgAwADAALwA4AFwAIgApACAAPQA9AD4AIABcACIAMQAwAC4AMAAuADAALgAwAC8AOABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AYwBoAGUAYwBrAGUAZAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAEkARgAoAGkAcwBfAG4AZQB0ACwAIABcACIALwBcACIAIAAmAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkALAAgAFwAIgBcACIAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAC8ALwAgACAAIAAgACAAQgBBAFMARQAgAEYAVQBOAEMAVABJAE8ATgBTAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuACAAdABoAGUAIABJAFAAIABwAGEAcgB0ACAAbwBmACAAYQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAHAAYQBpAHIALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAFwAbgAgACoALwBcAG4AaQBwACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AZABvAHQAMgBkAGUAYwAoAGkAcABfAHMAdAByAGkAbgBnACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABwAGEAcgB0ACAAbwBmACAAYQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AGwAZQBuAFwAIgAgAHAAYQBpAHIAIABhAHMAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHAAcgBlAGYAaQB4AGwAZQBuACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAMgA0AFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAHAAcgBlAGYAaQB4AGwAZQBuACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAHAAZgB4ACAAPAAgADAAKQAgACsAIAAoAHAAZgB4ACAAPgAgADMAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgAHAAYQByAHQAIABvAGYAIABhAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAcABhAGkAcgAgAGEAcwAgAGEAIABuAGUAdAAgAG0AYQBzAGsALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHQAbQBhAHMAawAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkAKQApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgAHAAYQByAHQAIABvAGYAIABhAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAcABhAGkAcgAgAGEAcwAgAGEAIABoAG8AcwB0ACAAbQBhAHMAawAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAaABvAHMAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADAALgAwAC4AMAAuADIANQA1AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAzADIAKQApACkAXABuAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHQAdwBvAHIAawAgAGEAZABkAHIAZQBzAHMAIABvAGYAIAB0AGgAZQAgAGcAaQB2AGUAbgAgAGkAbgB0AGUAcgBmAGEAYwBlACAAaQBwAC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAGUAdAB3AG8AcgBrAF8AYQBkAGQAcgBlAHMAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG4AZQB0AHcAbwByAGsAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAKQAgACYAIABJAEYAKABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGIAcgBvAGEAZABjAGEAcwB0ACAAYQBkAGQAcgBlAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGIAcgBvAGEAZABjAGEAcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMgA1ADUAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGIAcgBvAGEAZABjAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAZQB4AGMAbAB1AGQAZQBfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGMAZQBsAGwAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGMAZQBsAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAKQAgACYAIABJAEYAKABlAHgAYwBsAHUAZABlAF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAYQBkAGQAcgBlAHMAcwBlAHMAIABpAG4AIAB0AGgAZQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAHUAbQBfAGEAZABkAHIAZQBzAHMAZQBzACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAMgA1ADYAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgB1AG0AXwBhAGQAZAByAGUAcwBzAGUAcwAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AIAAzADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIASQBUAE4ATwBUACgAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsADMAMgApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvAC8AIABTAHUAYgBuAGUAdAAgAEgAbwBzAHQAIABOAGEAdgBpAGcAYQB0AGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZgBpAHIAcwB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQA6ACAATwBwAHQAaQBvAG4AYQBsACwAIABkAG8AIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAGkAbgAgAHQAaABlACAAcgBlAHMAcABvAG4AcwBlACAAaQBmACAAdABoAGUAIABpAG4AcAB1AHQAIABpAHMAIABhACAAbgBlAHQAdwBvAHIAawBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGYAaQByAHMAdABoAG8AcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AZgBpAHIAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABjAGUAbABsAHMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAYwBlAGwAbABzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABjAGUAbABsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGYAaQByAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACkAIAAmACAASQBGACgAIABvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AIAArACAAbgBvAHQAKABpAHMAXwBuAGUAdAApACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQA6ACAATwBwAHQAaQBvAG4AYQBsACwAIABkAG8AIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAGkAbgAgAHQAaABlACAAcgBlAHMAcABvAG4AcwBlACAAaQBmACAAdABoAGUAIABpAG4AcAB1AHQAIABpAHMAIABhACAAbgBlAHQAdwBvAHIAawBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGwAYQBzAHQAaABvAHMAdAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADIANQA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBsAGEAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALAAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGMAZQBsAGwAcwApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABjAGUAbABsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGMAZQBsAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGwAYQBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHgAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwAgAG8AZgAgAGEAIABzAHUAYgBuAGUAdAAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdADoAIABPAHAAdABpAG8AbgBhAGwALAAgAGQAbwAgAG4AbwB0ACAAaQBuAGMAbAB1AGQAZQAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaABcAG4AIAAqACAAaQBuACAAdABoAGUAIAByAGUAcwBwAG8AbgBzAGUAIABpAGYAIAB0AGgAZQAgAGkAbgBwAHUAdAAgAGkAcwAgAGEAIABuAGUAdAB3AG8AcgBrAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgA0AC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAzAFwAIgBcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQAwAC4AMAAuADAALgAyAFwAIgApACAAPQA9AD4AIABcACIAMQAwAC4AMAAuADAALgAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBwAHIAZQB2AGkAbwB1AHMAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGMAZQBsAGwAcwApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABjAGUAbABsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHcAXwBpAHAALABpAHAAZABlAGMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AGgAbwBzAHQALABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHcAXwBpAHAAIAA8ACAAZgBpAHIAcwB0AGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdwBfAGkAcAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB4AHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgA0AC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAzAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AbgBlAHgAdABfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAYwBlAGwAbABzACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABjAGUAbABsAHMALABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAGMAZQBsAGwAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABuAGUAdwBfAGkAcAAsAGkAcABkAGUAYwAgACsAIAAxACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AGgAbwBzAHQALABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AGgAbwBzAHQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABuAGUAdwBfAGkAcAAgAD4AIABsAGEAcwB0AGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdwBfAGkAcAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABuAGUAeAB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHAAcgBlAHYAaQBvAHUAcwBoAG8AcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4ANAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMwBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBuAGQAZQB4AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABpAG4AZABlAHgALABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaABvAHMAdAAsAF8AbABhAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBoAG8AcwB0ACwAXwBmAGkAcgBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAPAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBoAG8AcwB0ACAAKwAgAGkAbgBkAGUAeAAgACsAIAAxACAAPAAgAGYAaQByAHMAdABfAGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAbABhAHMAdABfAGgAbwBzAHQAIAArACAAaQBuAGQAZQB4ACAAKwAgADEAIAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGgAbwBzAHQAIAArACAAaQBuAGQAZQB4ACAALQAgADEAIAA+ACAAbABhAHMAdABfAGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAZgBpAHIAcwB0AF8AaABvAHMAdAAgACsAIABpAG4AZABlAHgAIAAtACAAMQApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAcAByAGUAdgBpAG8AdQBzACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAHMAdQBiAG4AZQB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADcALgAyADUANQAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAHAAcgBlAHYAaQBvAHUAcwBfAHMAdQBiAG4AZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABkAGUAYwAsACAAXwBwAHIAZQB2AGkAbwB1AHMAcwB1AGIAbgBlAHQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABuAGUAdABkAGUAYwAgADwAIAAwACkAIAArACAAKABuAGUAdABkAGUAYwAgAD4AIAAyACAAXgAgADMAMgAgAC0AIAAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB4AHQAIABzAHUAYgBuAGUAdAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAGUAeAB0AHMAdQBiAG4AZQB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHgAdABfAHMAdQBiAG4AZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AbgBlAHgAdABzAHUAYgBuAGUAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAXAAiAGkAbgBkAGUAeABcACIAdABoACAAcwB1AGIAbgBlAHQAIABpAG4AIABhACAAbABhAHIAZwBlAHIAIABzAHUAbQBtAGEAcgB5AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBzAHUAbQBtAGEAcgB5ADoAIABhACAAQwBlAGwAbAAgAG8AcgAgAFMAdAByAGkAbgBnACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAbgAgAGkAcAAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAF8AcAByAGUAZgBpAHgAOgAgAGEAIABDAGUAbABsACAAbwByACAAUwB0AHIAaQBuAGcAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAYQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAHQAbwAgAHMAdQBiAG4AZQB0ACAAdABoAGUAIABzAHUAbQBtAGEAcgB5ACAAaQBuAHQAbwAuAFwAbgAgACoAIABpAG4AZABlAHgAOgAgAGEAIABwAG8AcwBpAHQAaQB2AGUAIABvAHIAIABuAGUAZwBhAHQAaQB2AGUAIABpAG4AZABlAHgAIABuAHUAbQBiAGUAcgAuACAASQBmACAAcABvAHMAaQB0AGkAdgBlACwAIAB3AGkAbABsACAAXABuACAAKgAgAHIAZQB0AHUAcgBuACAAdABoAGUAIABzAHUAYgBuAGUAdAAgAGEAdAAgAHQAaABlACAAaQBuAGQAZQB4ACAAcABvAHMAaQB0AGkAbwBuACAAKABmAGkAcgBzAHQAIABzAHUAYgBuAGUAdAAgAGkAcwAgADAAKQAuAFwAbgAgACoAIABJAGYAIABuAGUAZwBhAHQAaQB2AGUALAAgAHcAaQBsAGwAIAByAGUAdAB1AHIAbgAgAHQAaABlACAAcwB1AGIAbgBlAHQAIABkAGUAYwByAGUAYQBzAGkAbgBnACAAZgByAG8AbQAgAHQAaABlACAAZQBuAGQAIABvAGYAXABuACAAKgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuACAAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAG4AZABlAHgAXwBzAHUAYgBuAGUAdAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAxADYAXAAiACwAMgA0ACwALQAzACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMgA1ADMALgAwAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAG4AZABlAHgAXwBzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAHMAdQBtAG0AYQByAHkALAAgAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeAAsACAAaQBuAGQAZQB4ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAaQBwAF8AcwB1AG0AbQBhAHIAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGkAcABfAHMAdQBtAG0AYQByAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcwBtAGEAbABsAGUAcgBfAHAAcgBlAGYAaQB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAsACAAXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABzAHUAYgBfAHMAaQB6AGUALABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeAApACwAMwAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAB0AGEAcgBnAGUAdABfAG4AZQB0AF8AZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AZABlAHgAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcABfAGQAZQBjACAAKwAgAGkAbgBkAGUAeAAgACoAIAAoAHMAdQBiAF8AcwBpAHoAZQAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAHMAdABfAGkAcABfAGQAZQBjACAAKwAgADEAIAArACAAaQBuAGQAZQB4ACAAKgAgACgAcwB1AGIAXwBzAGkAegBlACAAKwAgADEAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKAB0AGEAcgBnAGUAdABfAG4AZQB0AF8AZABlAGMAKQAgACYAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcwBtAGEAbABsAGUAcgBfAHAAcgBlAGYAaQB4AGQAZQBjACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZAB5AG4AYQBtAGkAYwAgAGEAcgByAGEAeQAgAG8AZgAgAHQAaABlACAAcwB1AGIAbgBlAHQAcwAgAGkAbgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAHMAdQBwAGUAcgBuAGUAdAA6ACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAHAAZgB4ADoAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABvAGYAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AHQAaQBuAGcALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHMAdQBiAG4AZQB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgAsADIANQApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADUAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAyADgALwAyADUAXAAiAH0AXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AcwB1AGIAbgBlAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdQBwAGUAcgBuAGUAdAAsAHMAbQBhAGwAbABlAHIAcABmAHgALABbAHMAdABhAHIAdABdACwAWwBzAHQAbwBwAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AHAAZQByAG4AZQB0AGkAcAAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAHMAdQBwAGUAcgBuAGUAdAAsACAAXAAiAC8AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBwAGUAcgBuAGUAdABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABzAHUAcABlAHIAbgBlAHQALAAgAFwAIgAvAFwAIgApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAF8AZABvAHQAMgBkAGUAYwAoAHMAdQBwAGUAcgBuAGUAdABpAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AHAAZQByAG4AZQB0AHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABzAHUAcABlAHIAbgBlAHQAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAHMAbQBhAGwAbABlAHIAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHMAbQBhAGwAbABlAHIAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcABfAGQAZQBjACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAHMAdQBwAGUAcgBuAGUAdABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAHMAdQBwAGUAcgBuAGUAdABwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAcwBpAHoAZQAsACAAQgBJAFQATgBPAFQAKABzAG0AYQBsAGwAZQByAHAAZgB4AGQAZQBjACwAMwAyACkAIAArACAAMQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAHQAYQByAGcAZQB0AF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAdABhAHIAdAAgAD4APQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIABzAHQAYQByAHQAIAAqACAAbgBlAHQAcwBpAHoAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIAAxACAAKwAgAHMAdABhAHIAdAAgACoAIABuAGUAdABzAGkAegBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AdABhAHIAZwBlAHQAXwBpAHAALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMATwBNAEkAVABUAEUARAAoAHMAdABvAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcwB0AG8AcAAgAD4APQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIABzAHQAbwBwACAAKgAgAG4AZQB0AHMAaQB6AGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMAIAArACAAMQAgACsAIABzAHQAbwBwACAAKgAgAG4AZQB0AHMAaQB6AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIAbgBlAHQAXwBuAGIAcgAsACAAKABsAGEAcwB0AF8AdABhAHIAZwBlAHQAXwBpAHAAIAArACAAMQAgAC0AIABmAGkAcgBzAHQAXwB0AGEAcgBnAGUAdABfAGkAcAApACAALwAgAG4AZQB0AHMAaQB6AGUALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABmAGkAcgBzAHQAXwB0AGEAcgBnAGUAdABfAGkAcAAgACsAIABTAEUAUQBVAEUATgBDAEUAKABzAHUAYgBuAGUAdABfAG4AYgByACwALAAwACwAMQApACAAKgAgAG4AZQB0AHMAaQB6AGUAKQAgACYAIABcACIALwBcACIAIAAmACAAcwBtAGEAbABsAGUAcgBwAGYAeABcAG4AXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAYQAgAGQAeQBuAGEAbQBpAGMAIABhAHIAcgBhAHkAIABvAGYAIAB0AGgAZQAgAGgAbwBzAHQAcwAgAGkAbgAgAHQAaABlACAAbgBlAHQAdwBvAHIAawAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAG4AZQB0AHcAbwByAGsAOgAgAGEAIABDAGUAbABsACAAbwByACAAUwB0AHIAaQBuAGcAIABuAGUAdAB3AG8AcgBrACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABoAG8AcwB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMwAxAFwAIgApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AHMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAWwBzAHQAYQByAHQAXQAsAFsAcwB0AG8AcABdACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAG8AdAAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAXwBkAG8AdAAyAGQAZQBjACgAaQBwAGQAbwB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAYQBsAF8AcwB0AG8AcAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABzAHQAbwBwACkALAAtADEALABzAHQAbwBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAIAA8AD0AIAAzADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPAA9ACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBuAGQAZQB4AGUAZABfAGkAcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBwACAAKwAgAHMAdABhAHIAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAIAArACAAcwB0AGEAcgB0ACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQBhAGwAXwBzAHQAbwBwACAAPgA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcAAgACsAIAByAGUAYQBsAF8AcwB0AG8AcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAIAArACAAcgBlAGEAbABfAHMAdABvAHAAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG4AdQBtAGIAZQByAF8AbwBmAF8AaABvAHMAdABzACwAIABsAGEAcwB0AF8AaQBuAGQAZQB4AGUAZABfAGkAcAAgAC0AIABmAGkAcgBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABmAGkAcgBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACAAPAAgAGYAaQByAHMAdABfAGkAcAApACAAKwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbABhAHMAdABfAGkAbgBkAGUAeABlAGQAXwBpAHAAIAA+ACAAbABhAHMAdABfAGkAcAApACAAKwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AdQBtAGIAZQByAF8AbwBmAF8AaABvAHMAdABzACAAPAAgADEALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGYAaQByAHMAdABfAGkAbgBkAGUAeABlAGQAXwBpAHAAIAArACAAUwBFAFEAVQBFAE4AQwBFACgAbgB1AG0AYgBlAHIAXwBvAGYAXwBoAG8AcwB0AHMALAAsADAALAAxACkAKQAgACYAIABJAEYAKABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZAB5AG4AYQBtAGkAYwAgAGEAcgByAGEAeQAgAG8AZgAgAHQAaABlACAAcwB1AGIAbgBlAHQAcwAgAGkAbgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAHMAdQBwAGUAcgBuAGUAdAA6ACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAHAAZgB4ADoAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABvAGYAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AHQAaQBuAGcALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHMAdQBiAG4AZQB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgAsADIANQApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADUAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAyADgALwAyADUAXAAiAH0AXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AcwB1AGIAbgBlAHQAXwBvAGYAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABvAHQAaABlAHIALABcAG4AIAAgACAAIAAvAC8AUgBlAHQAdQByAG4AIABUAHIAdQBlACAAaQBmACAAaQBwAF8AbgBlAHQAdwBvAHIAawAgAGkAcwAgAGEAIABzAHUAYgBuAGUAdAAgAG8AZgAgAG8AdABoAGUAcgAuAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABfAGQAZQBjACwAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AbgBlAHQAdwBvAHIAawAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABuAGUAdABfAGQAZQBjACwAIABuAGUAdABfAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AbABhAHMAdABfAGkAcAAsACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG4AZQB0AF8AZABlAGMALAAgAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABvAHQAaABlAHIALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAbwB0AGgAZQByACwAIABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABvAHQAaABlAHIAXwBuAGUAdABfAGQAZQBjACwAIABvAHQAaABlAHIAXwBuAGUAdABfAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AbABhAHMAdABfAGkAcAAsACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAKAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACAAPAA9ACAAbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAAIAApACAAKgAgACgAbgBlAHQAXwBsAGEAcwB0AF8AaQBwACAAPAA9ACAAbwB0AGgAZQByAF8AbgBlAHQAXwBsAGEAcwB0AF8AaQBwACkAKQAgAD4AIAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAHMAdQBwAGUAcgBuAGUAdABfAG8AZgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAG8AdABoAGUAcgAsAFwAbgAgACAAIAAgAC8ALwBSAGUAdAB1AHIAbgAgAFQAcgB1AGUAIABpAGYAIABpAHAAXwBuAGUAdAB3AG8AcgBrACAAaQBzACAAYQAgAHMAdQBiAG4AZQB0ACAAbwBmACAAbwB0AGgAZQByAC4AXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABfAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG4AZQB0AF8AZABlAGMALAAgAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAbgBlAHQAXwBkAGUAYwAsACAAbgBlAHQAXwBwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAG8AdABoAGUAcgAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABvAHQAaABlAHIALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAbwB0AGgAZQByAF8AbgBlAHQAXwBkAGUAYwAsACAAbwB0AGgAZQByAF8AbgBlAHQAXwBwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAKAAoACAAbwB0AGgAZQByAF8AbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAAIAA8AD0AIABuAGUAdABfAGYAaQByAHMAdABfAGkAcAAgACkAIAAqACAAKABuAGUAdABfAGwAYQBzAHQAXwBpAHAAIAA8AD0AIABvAHQAaABlAHIAXwBuAGUAdABfAGwAYQBzAHQAXwBpAHAAKQApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AcwB1AHAAZQByAG4AZQB0AF8AZABpAGYAZgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAHAAcgBlAGYAaQB4AGwAZQBuAF8AZABpAGYAZgAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAG4AZQB0AHcAbwByAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBuAGUAdAB3AG8AcgBrACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdwBfAHAAcgBlAGYAaQB4ACwAIABwAGYAeAAgAC0AIABwAHIAZQBmAGkAeABsAGUAbgBfAGQAaQBmAGYALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPAAgADAAKQAgACsAIAAoAG4AZQB3AF8AcAByAGUAZgBpAHgAIAA+ACAAMwAyACkAIAArACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPgA9ACAAcABmAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIAAoAHAAZgB4ACAALQAgAHAAcgBlAGYAaQB4AGwAZQBuAF8AZABpAGYAZgApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBzAHUAcABlAHIAbgBlAHQAXwBuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AbgBlAHQAdwBvAHIAawAsACAAbgBlAHcAXwBwAHIAZQBmAGkAeAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAG4AZQB0AHcAbwByAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBuAGUAdAB3AG8AcgBrACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbgBlAHcAXwBwAHIAZQBmAGkAeAAgADwAIAAwACkAIAArACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPgAgADMAMgApACAAKwAgACgAbgBlAHcAXwBwAHIAZQBmAGkAeAAgAD4APQAgAHAAZgB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABpAHAAZABlAGMAKQAgACYAIABcACIALwBcACIAIAAmACAAbgBlAHcAXwBwAHIAZQBmAGkAeABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAcwBvAHIAdABlAGQAIABsAGkAcwB0ACAAbwBmACAAaQBwACAAYQBkAGQAcgBlAHMAcwBlAHMALwBpAG4AdABlAHIAZgBhAGMAZQBzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAAXAAiACAAbwByACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAZABvACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAdABoAGUAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoAFwAbgAgACoAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHAAbwBuAHMAZQAgAGkAZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABzAG8AcgB0ACgAewBcACIAMQA5ADIALgAxADYAOAAuADEALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgB9ACkAIAA9AD0APgAgAHsAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgAgAHMAbwByAHQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAAaQBwAC4AYwBoAGUAYwBrAGUAZAAoAFMATwBSAFQAKABpAHAALgBwAGEAZABkAGUAZAAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAApACkAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZgBpAGwAdABlAHIAZQBkACAAbABpAHMAdAAgAG8AZgAgAGkAcAAgAGEAZABkAHIAZQBzAHMAZQBzAC8AaQBuAHQAZQByAGYAYQBjAGUAcwAgAHQAaABhAHQAIABhAHIAZQAgAGkAbgBjAGwAdQBkAGUAZAAgAGkAbgBcAG4AIAAqACAAbwByACAAZQB4AGMAbAB1AGQAZQBkACAAbwBmACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAFwAIgAgAG8AcgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAHUAcABlAHIAbgBlAHQAOgAgAGEAbgAgAGkAcAAgAG4AZQB0AHcAbwByAGsAIABpAG4AIABcACIAaQBwAFwAIgAgAG8AcgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAZgBpAGwAdABlAHIAXwBpAG4AYwBsAHUAZABlACgAewBcACIAMQA5ADIALgAxADYAOAAuADEALgAwAC8AMgA2AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgB9ACkAIAA9AD0APgAgAHsAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBmAGkAbAB0AGUAcgBfAGkAbgBjAGwAdQBkAGUAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABzAHUAcABlAHIAbgBlAHQALABcAG4AIAAgACAAIABGAEkATABUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABpAHAALgBzAHUAYgBuAGUAdABfAG8AZgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABzAHUAcABlAHIAbgBlAHQAKQA9AFQAUgBVAEUAKQBcAG4AKQA7AFwAbgBcAG4AZgBpAGwAdABlAHIAXwBlAHgAYwBsAHUAZABlACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAcwB1AHAAZQByAG4AZQB0ACwAXABuACAAIAAgACAARgBJAEwAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAaQBwAC4AcwB1AGIAbgBlAHQAXwBvAGYAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAcwB1AHAAZQByAG4AZQB0ACkAPQBGAEEATABTAEUAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIABvAGYAZgBzAGUAdAAgAGIAeQAgAHQAaABlACAAZABlAGMAaQBtAGEAbAAgAG8AZgBmAHMAZQB0ACAAcAByAG8AdgBpAGQAZQBkAC4AXABuACAAKgAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAcgBlAHQAdQByAG4AcwAgACMATgAvAEEAIABpAGYAIAB0AGgAZQAgAG8AZgBmAHMAZQB0ACAASQBQACAAaQBzACAAbwB1AHQAcwBpAGQAZQAgAHQAaABlACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAbwBmAGYAcwBlAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgAsADEAMAApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADEALgAxADEALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG8AZgBmAHMAZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAIABkAGUAYwBpAG0AYQBsAF8AbwBmAGYAcwBlAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAKABjAGUAbABsAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGYAZgBzAGUAdABfAGkAcABkAGUAYwAsACAAaQBwAGQAZQBjACAAKwAgAGQAZQBjAGkAbQBhAGwAXwBvAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAbwBmAGYAcwBlAHQAXwBpAHAAZABlAGMAIAA8ACAAZgBpAHIAcwB0AF8AaQBwACkAIAArACAAKABvAGYAZgBzAGUAdABfAGkAcABkAGUAYwAgAD4AIABsAGEAcwB0AF8AaQBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAG8AZgBmAHMAZQB0AF8AaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAHcAaQB0AGgAIABlAGEAYwBoACAAbwBjAHQAZQB0ACAAbwBmAGYAcwBlAHQAIABiAHkAIAB2AGEAbAB1AGUAIABwAHIAbwB2AGkAZABlAGQALgBcAG4AIAAqACAASQB0ACAAZABvAGUAcwAgAG4AbwB0ACAAZQByAHIAbwByACAAaQBmACAAdABoAGUAIABvAGYAZgBzAGUAdAAgAEkAUAAgAGkAcwAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFUAcwBlAGYAdQBsACAAdABvACAAbQBhAHAAIAB0AHcAbwAgAG4AZQB0AHcAbwByAGsAcwAgAHQAbwBnAGUAdABoAGUAcgAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABvAGYAZgBzAGUAdABvAGMAdABlAHQAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiACwAMAAsAC0AMQAwACwAMQAwACwAMAApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADUAOAAuADEAMAAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG8AYwB0AGUAdABfAG8AZgBmAHMAZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAIABvAGYAZgBzAGUAdAAxACwAIABvAGYAZgBzAGUAdAAyACwAIABvAGYAZgBzAGUAdAAzACwAIABvAGYAZgBzAGUAdAA0ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlACAAdABoAGUAIAB0AG8AdABhAGwAIABvAGYAZgBzAGUAdAAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIABvAGYAZgBzAGUAdABkAGUAYwAsACAAKABvAGYAZgBzAGUAdAAxACAAKgAgADIANQA2ACAAXgAgADMAKQAgACsAIAAoAG8AZgBmAHMAZQB0ADIAIAAqACAAMgA1ADYAIABeACAAMgApACAAKwAgACgAbwBmAGYAcwBlAHQAMwAgACoAIAAyADUANgApACAAKwAgACgAbwBmAGYAcwBlAHQANAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAgACsAIABvAGYAZgBzAGUAdABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjAGkAbgB2ACwAIABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAgADMAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAaQBwAGQAZQBjACAAPAAgADAAKQAgACsAIAAoAGkAcABkAGUAYwAgAD4AIAAyACAAXgAgADMAMgAgAC0AIAAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABUAFIAVQBFACAAaQBmACAAdABoAGUAIABzAHUAYgBuAGUAdAAgAGkAcwAgAHAAYQByAHQAIABvAGYAIABhAG4AIABSAEYAQwAxADkAMQA4ACAAYgBsAG8AYwBrACwAIABGAEEATABTAEUAIABvAHQAaABlAHIAdwBpAHMAZQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBSAEYAQwAxADkAMQA4ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AaQBzAF8AcgBmAGMAMQA5ADEAOAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMQA2ADcANwA3ADIAMQA2ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEAOAA0ADUANAA5ADMANwA1AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADgAOAA2ADcAMgA5ADcAMgA4AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADgAOAA3ADcANwA4ADMAMAAzAFwAIgApACkAKQAgACsAIAAvAC8AIAAxADcAMgAuADEANgAuADAALgAwAC8AMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAzADIAMgAzADUANQAyADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAzADIAMwAwADEAMAA1ADUAXAAiACkAKQApACAAIAAgAC8ALwAgADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADEANgBcAG4AIAAgACAAIAAgACAAIAAgACkAIAA+ACAAMABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAVABSAFUARQAgAGkAZgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAgAGkAcwAgAGQAZQBmAGkAbgBlAGQAIABhAHMAIABuAG8AdAAgAGcAbABvAGIAYQBsAGwAeQAgAHIAZQBhAGMAaABhAGIAbABlACAAYgB5ACAAaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AFwAbgAgACoAIABlAHgAYwBlAHAAdAAgAGYAbwByACAAMQAwADAALgA2ADQALgAwAC4AMAAvADEAMAAgAHcAaABpAGMAaAAgAGkAcwAgAEYAQQBMAFMARQAuAFwAbgAgACoAIABoAHQAdABwAHMAOgAvAC8AdwB3AHcALgBpAGEAbgBhAC4AbwByAGcALwBhAHMAcwBpAGcAbgBtAGUAbgB0AHMALwBpAGEAbgBhAC0AaQBwAHYANAAtAHMAcABlAGMAaQBhAGwALQByAGUAZwBpAHMAdAByAHkALwBpAGEAbgBhAC0AaQBwAHYANAAtAHMAcABlAGMAaQBhAGwALQByAGUAZwBpAHMAdAByAHkALgB4AGgAdABtAGwAXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHAAcgBpAHYAYQB0AGUAKABcACIAMQA5ADIALgAwAC4AMgAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFQAUgBVAEUAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBzAF8AcAByAGkAdgBhAHQAZQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADEAOQAxADUAOQAwADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADYAMQAxADAAMgAwADcAXAAiACkAKQApACwAIAAgACAAIAAgACAAIAAgAC8ALwAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAAgACAAIAAgACAAIABTAGgAYQByAGUAZAAgAEEAZABkAHIAZQBzAHMAIABTAHAAYQBjAGUALAAgAG4AZQBpAHQAaABlAHIAIABwAHIAaQB2AGEAdABlACAAbgBvAHIAIABnAGwAbwBiAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADUAXAAiACkAKQApACAAKwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMAAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAaQBzACAAbgBlAHQAdwBvAHIAawBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADYAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMQA4ADQANQA0ADkAMwA3ADUAXAAiACkAKQApACAAKwAgACAAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOAAgACAAIAAgACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADEAMwAwADcAMAA2ADQAMwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADEANAA3ADQAOAAzADYANAA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQAyADcALgAwAC4AMAAuADAALwA4ACAAIAAgACAAIAAgACAAIAAgAEwAbwBvAHAAYgBhAGMAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA1ADEAOQA5ADUANgA0ADgAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA1ADIAMAA2ADEAMQA4ADMAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADYAOQAuADIANQA0AC4AMAAuADAALwAxADYAIAAgACAAIAAgACAATABpAG4AawAgAEwAbwBjAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA4ADYANwAyADkANwAyADgAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA4ADcANwA3ADgAMwAwADMAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADcAMgAuADEANgAuADAALgAwAC8AMQAyACAAIAAgACAAIAAgACAAUAByAGkAdgBhAHQAZQAtAFUAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA0ADcAMgBcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA3ADIANwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADAALgAwAC8AMgA0ACAAIAAgACAAIAAgACAAIABJAEUAVABGACAAUAByAG8AdABvAGMAbwBsACAAQQBzAHMAaQBnAG4AbQBlAG4AdABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA2ADQAMgBcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA2ADQAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADAALgAxADcAMAAvADMAMQAgACAAIAAgACAAIABOAEEAVAA2ADQALwBEAE4AUwA2ADQAIABEAGkAcwBjAG8AdgBlAHIAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUAOQA4ADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADYAMgAzADkAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADkAMgAuADAALgAyAC4AMAAvADIANAAgACAAIAAgACAAIAAgACAARABvAGMAdQBtAGUAbgB0AGEAdABpAG8AbgAgACgAVABFAFMAVAAtAE4ARQBUAC0AMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADMAMgAyADMANQA1ADIAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADMAMgAzADAAMQAwADUANQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADEANgAgACAAIAAgACAAIABQAHIAaQB2AGEAdABlAC0AVQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgAzADAANgA4ADQAMQA2AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgAzADEAOQA5ADQAOAA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADgALgAxADgALgAwAC4AMAAvADEANQAgACAAIAAgACAAIAAgAEIAZQBuAGMAaABtAGEAcgBrAGkAbgBnAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAzADIANQAyADUANgA3ADAANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAzADIANQAyADUANgA5ADUAOQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQA4AC4ANQAxAC4AMQAwADAALgAwAC8AMgA0ACAAIAAgACAAIABEAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACAAKABUAEUAUwBUAC0ATgBFAFQALQAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADQAMAA1ADgAMAAzADcANwA2AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADQAMAA1ADgAMAA0ADAAMwAxAFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMgAwADMALgAwAC4AMQAxADMALgAwAC8AMgA0ACAAIAAgACAAIAAgAEQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4AIAAoAFQARQBTAFQALQBOAEUAVAAtADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADQAMAAyADYANQAzADEAOAA0ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAyADQAMAAuADAALgAwAC4AMAAvADQAIAAgACAAIAAgACAAIAAgACAAUgBlAHMAZQByAHYAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAZgBpAHIAcwB0AGQAZQBjACAAPQAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA1AFwAIgApACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA1ADUALwAzADIAIAAgAEwAaQBtAGkAdABlAGQAIABCAHIAbwBhAGQAYwBhAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGUAIABhAGQAZAByAGUAcwBzACAAaQBzACAAbgBvAHQAIABkAGUAZgBpAG4AZQBkACAAYQBzACAAbgBvAHQAIABnAGwAbwBiAGEAbABsAHkAIAByAGUAYQBjAGgAYQBiAGwAZQAgAGIAeQAgAGkAYQBuAGEALQBpAHAAdgA0AC0AcwBwAGUAYwBpAGEAbAAtAHIAZQBnAGkAcwB0AHIAeQBcAG4AIAAqACAAZQB4AGMAZQBwAHQAIABmAG8AcgAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAB3AGgAaQBjAGgAIABpAHMAIABGAGEAbABzAGUALgBcAG4AIAAqACAAaAB0AHQAcABzADoALwAvAHcAdwB3AC4AaQBhAG4AYQAuAG8AcgBnAC8AYQBzAHMAaQBnAG4AbQBlAG4AdABzAC8AaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AC8AaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AC4AeABoAHQAbQBsAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBnAGwAbwBiAGEAbAAoAFwAIgAxADkAMgAuADAALgAyAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHMAXwBnAGwAbwBiAGEAbAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADEAOQAxADUAOQAwADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADYAMQAxADAAMgAwADcAXAAiACkAKQApACwAIAAgACAAIAAgACAAIAAgAC8ALwAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAAgACAAIAAgACAAIABTAGgAYQByAGUAZAAgAEEAZABkAHIAZQBzAHMAIABTAHAAYQBjAGUALAAgAG4AZQBpAHQAaABlAHIAIABwAHIAaQB2AGEAdABlACAAbgBvAHIAIABnAGwAbwBiAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADUAXAAiACkAKQApACAAKwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMAAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAaQBzACAAbgBlAHQAdwBvAHIAawBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADYAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMQA4ADQANQA0ADkAMwA3ADUAXAAiACkAKQApACAAKwAgACAAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOAAgACAAIAAgACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAMQAzADAANwAwADYANAAzADIAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAMQA0ADcANAA4ADMANgA0ADcAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADIANwAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAATABvAG8AcABiAGEAYwBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMQA5ADkANQA2ADQAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMgAwADYAMQAxADgAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEANgA5AC4AMgA1ADQALgAwAC4AMAAvADEANgAgACAAIAAgACAAIABMAGkAbgBrACAATABvAGMAYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADgANgA3ADIAOQA3ADIAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADgANwA3ADcAOAAzADAAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEANwAyAC4AMQA2AC4AMAAuADAALwAxADIAIAAgACAAIAAgACAAIABQAHIAaQB2AGEAdABlAC0AVQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADQANwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADcAMgA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAwAC4AMAAuADAALwAyADQAIAAgACAAIAAgACAAIAAgAEkARQBUAEYAIABQAHIAbwB0AG8AYwBvAGwAIABBAHMAcwBpAGcAbgBtAGUAbgB0AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADYANAAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADYANAAzAFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAwAC4AMAAuADEANwAwAC8AMwAxACAAIAAgACAAIAAgAE4AQQBUADYANAAvAEQATgBTADYANAAgAEQAaQBzAGMAbwB2AGUAcgB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA5ADgANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANgAyADMAOQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADIALgAwAC8AMgA0ACAAIAAgACAAIAAgACAAIABEAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACAAKABUAEUAUwBUAC0ATgBFAFQALQAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMwAyADIAMwA1ADUAMgAwAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMwAyADMAMAAxADAANQA1AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMQA2ACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMwAyADMAMAA2ADgANAAxADYAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMwAyADMAMQA5ADkANAA4ADcAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADkAOAAuADEAOAAuADAALgAwAC8AMQA1ACAAIAAgACAAIAAgACAAQgBlAG4AYwBoAG0AYQByAGsAaQBuAGcAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgA1ADIANQA2ADcAMAA0AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgA1ADIANQA2ADkANQA5AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADgALgA1ADEALgAxADAAMAAuADAALwAyADQAIAAgACAAIAAgAEQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4AIAAoAFQARQBTAFQALQBOAEUAVAAtADIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMANAAwADUAOAAwADMANwA3ADYAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMANAAwADUAOAAwADQAMAAzADEAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAyADAAMwAuADAALgAxADEAMwAuADAALwAyADQAIAAgACAAIAAgACAARABvAGMAdQBtAGUAbgB0AGEAdABpAG8AbgAgACgAVABFAFMAVAAtAE4ARQBUAC0AMwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADIANAAwAC4AMAAuADAALgAwAC8ANAAgACAAIAAgACAAIAAgACAAIABSAGUAcwBlAHIAdgBlAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABmAGkAcgBzAHQAZABlAGMAIAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADUANQAvADMAMgAgACAATABpAG0AaQB0AGUAZAAgAEIAcgBvAGEAZABjAGEAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAIAA9ACAAMABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABUAFIAVQBFACAAaQBmACAAdABoAGkAcwAgAGkAcwAgAHQAaABlACAAdQBuAHMAcABlAGMAaQBmAGkAZQBkACAAYQBkAGQAcgBlAHMAcwAgAGEAcwAgAGQAZQBmAGkAbgBlAGQAIABpAG4AIABSAEYAQwAgADUANwAzADUAIAAzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAoAFwAIgAwAC4AMAAuADAALgAwAFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgADAAKQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAwAC4AMAAuADAALgAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAgAD4AIAAwAFwAbgBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAFQAUgBVAEUAIABpAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIAB3AGkAdABoAGkAbgAgAHQAaABlACAAcgBlAHMAZQByAHYAZQBkACAASQBFAFQARgAgAEkAUAB2ADQAIABOAGUAdAB3AG8AcgBrACAAcgBhAG4AZwBlAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHIAZQBzAGUAcgB2AGUAZAAoAFwAIgAyADQAMAAuADAALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHMAXwByAGUAcwBlAHIAdgBlAGQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADQAMAAyADYANQAzADEAOAA0ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAyADQAMAAuADAALgAwAC4AMAAvADQAXABuACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFQAUgBVAEUAIABpAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIAByAGUAcwBlAHIAdgBlAGQAIABmAG8AcgAgAG0AdQBsAHQAaQBjAGEAcwB0ACAAdQBzAGUALgAgAFMAZQBlACAAUgBGAEMAIAAzADEANwAxAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACgAXAAiADIANAAwAC4AMQAuADEALgAwAC8AMgA0AFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwA3ADUAOAAwADkANgAzADgANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADMAOQBcACIAKQApACkAIAA+ACAAMAAgACAAIAAvAC8AIAAyADIANAAuADAALgAwAC4AMAAvADQAXABuAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGkAcwAgAGkAcwAgAGEAIABsAG8AbwBwAGIAYQBjAGsAIABhAGQAZAByAGUAcwBzAC4AIABTAGUAZQAgAFIARgBDACAAMwAzADMAMAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBsAG8AbwBwAGIAYQBjAGsAKABcACIAMQAyADcALgAwAC4AMAAuADEALwAzADIAXAAiACkAIAA9AD0APgAgAFQAUgBVAEUAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBzAF8AbABvAG8AcABiAGEAYwBrACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADEAMwAwADcAMAA2ADQAMwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADEANAA3ADQAOAAzADYANAA3AFwAIgApACkAKQAgACAAIAAvAC8AIAAxADIANwAuADAALgAwAC4AMAAvADgAXABuACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGUAIABhAGQAZAByAGUAcwBzACAAaQBzACAAcgBlAHMAZQByAHYAZQBkACAAZgBvAHIAIABsAGkAbgBrAC0AbABvAGMAYQBsACAAdQBzAGEAZwBlAC4AIABTAGUAZQAgAFIARgBDACAAMwA5ADIANwAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBsAGkAbgBrAF8AbABvAGMAYQBsACgAXAAiADEANgA5AC4AMgA1ADQALgAxADAALgAxAC8AMwAyAFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuACAAaQBzAF8AbABpAG4AawBfAGwAbwBjAGEAbAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMQA5ADkANQA2ADQAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMgAwADYAMQAxADgAMwBcACIAKQApACkAIAAgACAALwAvACAAMQA2ADkALgAyADUANAAuADAALgAwAC8AMQA2AFwAbgAgACAAIAAgACAAIAAgACAAKQAgAD4AIAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAdgBlAHIAcwBlACAARABOAFMAIABwAG8AaQBuAHQAZQByACAAbgBhAG0AZQAgAGYAbwByACAAdABoAGUAIABJAFAAdgA0ACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABUAGgAaQBzACAAaQBtAHAAbABlAG0AZQBuAHQAcwAgAHQAaABlACAAbQBlAHQAaABvAGQAIABkAGUAcwBjAHIAaQBiAGUAZAAgAGkAbgAgAFIARgBDADEAMAAzADUAIAAzAC4ANQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIAByAGUAdgBlAHIAcwBlAF8AcABvAGkAbgB0AGUAcgAoAFwAIgAxADYAOQAuADIANQA0AC4AMQAwAC4AMQAvADMAMgBcACIAKQAgAD0APQA+ACAAMQAuADEAMAAuADIANQA0AC4AMQA2ADkALgBpAG4ALQBhAGQAZAByAC4AYQByAHAAYQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgByAGUAdgBlAHIAcwBlAF8AcABvAGkAbgB0AGUAcgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMgAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAXAAiAC4AXAAiACwAIAAyACkALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAzACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAXAAiAC4AXAAiACwAIAAzACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAbwBjAHQAZQB0ADEAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADEAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAyACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAyACAAPgAgADIANQA1ACkAIAArACAAKABvAGMAdABlAHQAMwAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMwAgAD4AIAAyADUANQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABvAGMAdABlAHQANAAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQANAAgAD4AIAAyADUANQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQANAAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADMAIAAmACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAyACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMQAgACYAIABcACIALgBpAG4ALQBhAGQAZAByAC4AYQByAHAAYQBcACIAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABCAEkATgBBAFIAWQAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABQAGUAcgBmAG8AcgBtACAAYQAgAGIAaQB0AHcAaQBzAGUAIABOAE8AVAAgAG8AbgAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGQAZQBjADoAIABhACAAcQB1AGEAZAAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApAFwAbgAgACoAIABiAGkAdABzADoAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAYgBpAHQAcwAgAHQAbwAgAHAAZQByAGYAbwByAG0AIAB0AGgAZQAgAEIASQBUAFcASQBTAEUAIABvAG4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAZABlAGMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApACAAPQA9AD4AIAAzADIAMwAyADIAMwA1ADUAMgAxAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAEIASQBUAE4ATwBUACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGQAZQBjACwAIABiAGkAdABzACwAXABuACAAIAAgACAAQgBJAFQAWABPAFIAKABCAEkAVABMAFMASABJAEYAVAAoADEALAAgAGIAaQB0AHMAKQAgAC0AIAAxACwAIABpAHAAZABlAGMAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEkAUAAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB2AGUAcgB5ACAAZgBpAHIAcwB0ACAAYQBkAGQAcgBlAHMAcwAgAG8AZgAgAGEAIABzAHUAYgBuAGUAdAAuACAASQB0ACAAaQBzACAAdABoAGUAIABuAGUAdAB3AG8AcgBrAFwAbgAgACoAIABhAGQAZAByAGUAcwBzACAAYQBuAGQAIABhAGwAcwBvACAAdABoAGUAIABmAGkAcgBzAHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAcwAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAQgBJAFQAQQBOAEQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB2AGUAcgB5ACAAbABhAHMAdAAgAGEAZABkAHIAZQBzAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgAgAEkAdAAgAGkAcwAgAHQAaABlACAAYgByAG8AYQBkAGMAYQBzAHQAXABuACAAKgAgAGEAZABkAHIAZQBzAHMAIABhAG4AZAAgAGEAbABzAG8AIAB0AGgAZQAgAGwAYQBzAHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAcwAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgAEIASQBUAE8AUgAoAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsACAAQgBJAFQATgBPAFQAKABwAGYAeABkAGUAYwAsACAAMwAyACkAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAaQByAHMAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AIABJAHQAIABpAHMAIAB0AGgAZQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGEAZABkAHIAZQBzAHMAIAArACAAMQAgAGUAeABjAGUAcAB0ACAAZgBvAHIAIAAvADMAMQAgAGEAbgBkACAALwAzADIAIABuAGUAdAB3AG8AcgBrAHMAIABmAG8AcgAgAHcAaABpAGMAaAAgAGkAdAAgAGkAcwAgAHQAaABlAFwAbgAgACoAIABuAGUAdAB3AG8AcgBrACAAYQBkAGQAcgBlAHMAcwBcAG4AIAAqACAAXABuACAAKgAgAGkAcABkAGUAYwA6ACAAdABoAGUAIABoAG8AcwB0ACAAcABhAHIAdAAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAgAHAAZgB4AGQAZQBjADoAIAB0AGgAZQAgAG4AZQB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACoALwBcAG4AXwBmAGkAcgBzAHQAaABvAHMAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAFMAVwBJAFQAQwBIACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAIABeACAAMwAyACAALQAgADIALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFAAcgBlAGYAaQB4ACAALwAzADEAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIASQBUAEEATgBEACgAbgBlAHQAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMgAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQAQQBOAEQAKABuAGUAdABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAgACsAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbABhAHMAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AIABJAHQAIABpAHMAIAB0AGgAZQAgAGIAcgBvAGEAZABjAGEAcwB0AFwAbgAgACoAIABhAGQAZAByAGUAcwBzACAALQAgADEAIABlAHgAYwBlAHAAdAAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzACAAZgBvAHIAIAB3AGgAaQBjAGgAIABpAHQAIABpAHMAIAB0AGgAZQBcAG4AIAAqACAAYgByAG8AYQBkAGMAYQBzAHQAIABhAGQAZAByAGUAcwBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGwAYQBzAHQAaABvAHMAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHYAcABmAHgAZABlAGMALAAgAEIASQBUAE4ATwBUACgAcABmAHgAZABlAGMALAAgADMAMgApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMgAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMQAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQATwBSACgAbgBlAHQAZABlAGMALAAgAGkAbgB2AHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMgAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQATwBSACgAbgBlAHQAZABlAGMALAAgAGkAbgB2AHAAZgB4AGQAZQBjACkAIAAtACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHAAcgBlAHYAaQBvAHUAcwAgAHMAdQBiAG4AZQB0ACAAaQBuACAAZABlAGMAaQBtAGEAbAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAHAAcgBlAHYAaQBvAHUAcwBzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AGQAZQBjACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABuAGUAdABkAGUAYwAgAC0AIABCAEkAVABOAE8AVAAoAHAAZgB4AGQAZQBjACwAIAAzADIAKQAgAC0AIAAxAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAbgBlAHQAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAZABlAGMAOgAgAHQAaABlACAAaABvAHMAdAAgAHAAYQByAHQAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACoAIABwAGYAeABkAGUAYwA6ACAAdABoAGUAIABuAGUAdABtAGEAcwBrACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqAC8AXABuAF8AbgBlAHgAdABzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAgACsAIAAxAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAASQBQACAAQwBvAG4AdgBlAHIAcwBpAG8AbgAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAbwB0AHQAZQBkACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAHMAdAByAGkAbgBnACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGQAbwB0ADoAIABhACAAcQB1AGEAZAAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBkAG8AdAAyAGQAZQBjACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAKQAgAD0APQA+ACAAMwAyADMAMgAyADMANQA1ADIAMQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAbwB0ADIAZABlAGMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABvAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgAsACAAMgApACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMwAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAIAAoAG8AYwB0AGUAdAAxACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAxACAAPgAgADIANQA1ACkAIAArACAAKABvAGMAdABlAHQAMgAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMgAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADMAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADMAIAA+ACAAMgA1ADUAKQAgACsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwBjAHQAZQB0ADQAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADQAIAA+ACAAMgA1ADUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABvAGMAdABlAHQAMQAgACoAIAAyADUANgAgAF4AIAAzACkAIAArACAAKABvAGMAdABlAHQAMgAgACoAIAAyADUANgAgAF4AIAAyACkAIAArACAAKABvAGMAdABlAHQAMwAgACoAIAAyADUANgApACAAKwAgACgAbwBjAHQAZQB0ADQAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgAGEAIABxAHUAYQBkACAAZABvAHQAdABlAGQAIABkAGUAYwBpAG0AYQBsACAAaQBwACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABpAHAAZABlAGMAOgAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAbgAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIAAzADIAMwAyADIAMwA1ADUAMgAxACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAZABlAGMAKAAzADIAMwAyADIAMwA1ADUAMgAxACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAF8AZABlAGMAMgBkAG8AdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAIAAoAGkAcABkAGUAYwAgADwAIAAwACkAIAArACAAKABpAHAAZABlAGMAIAA+ACAAKAAyACAAXgAgADMAMgAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABCAEkAVABSAFMASABJAEYAVAAoAGkAcABkAGUAYwAsACAAMgA0ACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBUAEEATgBEACgAQgBJAFQAUgBTAEgASQBGAFQAKABpAHAAZABlAGMALAAgADEANgApACwAIAAyADUANQApACAAJgAgAFwAIgAuAFwAIgAgACYAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQAQQBOAEQAKABCAEkAVABSAFMASABJAEYAVAAoAGkAcABkAGUAYwAsACAAOAApACwAIAAyADUANQApACAAJgAgAFwAIgAuAFwAIgAgACYAIABCAEkAVABBAE4ARAAoAGkAcABkAGUAYwAsACAAMgA1ADUAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABxAHUAYQBkACAAZABvAHQAdABlAGQAIABkAGUAYwBpAG0AYQBsACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAGkAbgB0AG8AIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAC4AXABuACAAKgAgAGkAcABkAG8AdAA6ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQBuACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgACgAaQAuAGUALgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAYgBpAG4AKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApACAAPQA9AD4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAbwB0ADIAYgBpAG4AIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABvAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgAsACAAMgApACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMwAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABvAGMAdABlAHQAMQAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMQAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPgAgADIANQA1ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAG8AYwB0AGUAdAA0ACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAA0ACAAPgAgADIANQA1ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIAQQBTAEUAKABvAGMAdABlAHQAMQAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQAMgAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQAMwAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQANAAsACAAMgAsACAAOAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAQwBvAG4AdgBlAHIAdAAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIABpAG4AdABvACAAYQAgAHEAdQBhAGQAIABkAG8AdAB0AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABpAHAAIABhAGQAZAByAGUAcwBzAC4AXABuACAAKgAgAGkAcABkAG8AdAA6ACAAYQAgADMAMgAgAGIAaQB0ACAAYgBpAG4AYQByAHkAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQBuACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgACgAaQAuAGUALgAgAFwAIgAxADEAMAAwADAAMAAwADAAMQAwADEAMAAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAXAAiACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGIAaQBuADIAZABvAHQAKABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGIAaQBuADIAZABvAHQAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABcAG4AIAAgACAAIABCAEkATgAyAEQARQBDACgATABFAEYAVAAoAGMAZQBsAGwAcwAsACAAOAApACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBOADIARABFAEMAKABNAEkARAAoAGMAZQBsAGwAcwAsACAAOQAsACAAOAApACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBOADIARABFAEMAKABNAEkARAAoAGMAZQBsAGwAcwAsACAAMQA3ACwAIAA4ACkAKQAgACYAIABcACIALgBcACIAIAAmAFwAbgAgACAAIAAgACAAIAAgACAAQgBJAE4AMgBEAEUAQwAoAE0ASQBEACgAYwBlAGwAbABzACwAIAAyADUALAAgADgAKQApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAQwBvAG4AdgBlAHIAdAAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAbgAgAEkAUAAgAGEAZABkAHIAZQBzAHMAIABpAG4AdABvACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAuAFwAbgAgACoAIABpAHAAYgBpAG4AOgAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIAAoAGkALgBlAC4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBiAGkAbgAyAGQAZQAoAFwAIgAxADEAMAAwADAAMAAwADAAMQAwADEAMAAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAXAAiACkAIAA9AD0APgAgADMAMgAzADIAMgAzADUANQAyADEAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AXwBiAGkAbgAyAGQAZQBjACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGIAaQBuACwAIABEAEUAQwBJAE0AQQBMACgAaQBwAGIAaQBuACwAIAAyACkAKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhAG4AIABJAFAAIABhAGQAZAByAGUAcwBzACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGIAaQBuADoAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAKABpAC4AZQAuACAAMwAyADMAMgAyADMANQA1ADIAMQApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBkAGUAYwAyAGIAaQBuACgAMwAyADMAMgAyADMANQA1ADIAMQApACAAPQA9AD4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAZQBjADIAYgBpAG4AIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABlAGMALABcAG4AIAAgACAAIABCAEEAUwBFACgAaQBwAGQAZQBjACwAIAAyACwAIAAzADIAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhACAASQBQACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgACgAMAAgAHQAbwAgADMAMgApACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAALgBcAG4AIAAqACAAaQBwAGIAaQBuADoAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAKABpAC4AZQAuACAAMwAyADMAMgAyADMANQA1ADIAMQApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQAoADgAKQAgAD0APQA+ACAAXAAiADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4ALwAvACAAXwBwAGYAeAAyAGIAaQBuACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4ALwAvACAAIAAgACAAIAAvAC8AIABDAGEAbABjAHUAbABhAHQAZQBkACAAdgBlAHIAcwBpAG8AbgBcAG4ALwAvACAAIAAgACAAIABJAEYAKAAoAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAcABmAHgAIAA8ACAAMAApACAAKwAgACgAcABmAHgAIAA+ACAAMwAyACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAFIARQBQAFQAKABcACIAMQBcACIALAAgAHAAZgB4ACkAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAMwAyACAALQAgAHAAZgB4ACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBwAGYAeAAyAGIAaQBuACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFwAIgAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABcACIAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAXAAiADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFwAIgAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABcACIAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAXAAiADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFwAIgAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABcACIAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAXAAiADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADAALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAxACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEAMgAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADMALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQA0ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEANQAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADYALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQA3ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEAOAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADkALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAwACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIAMQAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADIALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAzACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIANAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADUALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgA2ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIANwAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADgALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgA5ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMAMAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAzADEALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAyACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhAG4AIABJAFAAIABtAGEAcwBrACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAIABJAFAAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAKAAwACAAdABvACAAMwAyACkALgBcAG4AIAAqACAAbQBhAHMAawBiAGkAbgA6ACAAYQAgADMAMgAgAGIAaQB0ACAAYgBpAG4AYQByAHkAIABzAHQAcgBpAG4AZwBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAF8AYgBpAG4AMgBwAGYAeAAoAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACkAIAA9AD0APgAgADgAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4ALwAvACAAXwBiAGkAbgAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAawBiAGkAbgAsAFwAbgAvAC8AIAAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlAGQAIAB2AGUAcgBzAGkAbwBuAFwAbgAvAC8AIAAgACAAIAAgAEkARgAoAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAKABGAEkATgBEACgAXAAiADAAXAAiACwAIABtAGEAcwBrAGIAaQBuACAAJgAgAFwAIgAwAFwAIgApACAALQAgADEAIAA9ACAATABFAE4AKABtAGEAcwBrAGIAaQBuACkAIAAtACAATABFAE4AKABTAFUAQgBTAFQASQBUAFUAVABFACgAbQBhAHMAawBiAGkAbgAsACAAXAAiADEAXAAiACwAIABcACIAXAAiACkAKQApACAAKgAgAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEYASQBOAEQAKABcACIAMABcACIALAAgAG0AYQBzAGsAYgBpAG4AIAAmACAAXAAiADAAXAAiACkAIAA+ACAAMQApACwAXABuAC8ALwAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXAAiADAAXAAiACwAIABtAGEAcwBrAGIAaQBuACAAJgAgAFwAIgAwAFwAIgApACAALQAgADEALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBiAGkAbgAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA0ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAyACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgA0ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwAFwAIgAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwAFwAIgAsACAAMgA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwAFwAIgAsACAAMgA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwAFwAIgAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwAFwAIgAsACAAMgA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwAFwAIgAsACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwAFwAIgAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxAFwAIgAsACAAMwAyACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAEkAUAAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAAoADAAIAB0AG8AIAAzADIAKQAgAGkAbgB0AG8AIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByAC4AXABuACAAKgAgAHAAZgB4ADoAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQBjACgAOAApACAAPQA9AD4AIAA0ADIANwA4ADEAOQAwADAAOAAwAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAC8ALwAgAF8AcABmAHgAMgBkAGUAYwAgAD0AIABMAEEATQBCAEQAQQAoAHAAZgB4ACwAXABuAC8ALwAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AXABuAC8ALwAgACAAIAAgACAATABFAFQAKABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AIAAzADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuAC8ALwAgACAAIAAgACAAIAAgACAAIABfAGIAaQBuADIAZABlAGMAKABfAHAAZgB4ADIAYgBpAG4AKABwAGYAeAApACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBwAGYAeAAyAGQAZQBjACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFYAQQBMAFUARQAoAFwAIgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABWAEEATABVAEUAKABcACIAMgAxADQANwA0ADgAMwA2ADQAOABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFYAQQBMAFUARQAoAFwAIgAzADcANQA4ADAAOQA2ADMAOAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAVgBBAEwAVQBFACgAXAAiADQAMQA2ADAANwA0ADkANQA2ADgAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAMgA3ADgANQA4ADQAMwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABWAEEATABVAEUAKABcACIANAAyADYAMQA0ADEAMgA4ADYANABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAVgBBAEwAVQBFACgAXAAiADQAMgA3ADgAMQA5ADAAMAA4ADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOAA2ADUANwA4ADYAOAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAwADcANwAyADkAOQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAyADgANwAwADEANAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAzADkAMQA4ADcAMgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADMALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADQANAAzADAAMAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADQALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADcAMAA1ADEANQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADUALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADgAMwA2ADIAMgA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkAMAAxADcANgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADcALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkAMwA0ADUAMgA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADgALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANQAwADkAMQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANQA5ADEAMAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgAzADIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA1ADIANAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA2ADIANwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADMALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA2ADcAOAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADQALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADAANAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADUALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADEANgA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAMwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADcALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIANgA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADgALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA1AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAG0AYQBzAGsAIABpAG4AdABvACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhACAASQBQACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgACgAMAAgAHQAbwAgADMAMgApAC4AXABuACAAKgAgAHAAZgB4ADoAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQBjACgAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiACkAIAA9AD0APgAgADIANABcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgAvAC8AIABfAGQAbwB0ADIAcABmAHgAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBrAGQAbwB0ACwAXABuAC8ALwAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AXABuAC8ALwAgACAAIAAgACAAXwBiAGkAbgAyAHAAZgB4ACgAXwBkAGUAYwAyAGIAaQBuACgAXwBkAG8AdAAyAGQAZQBjACgAbQBhAHMAawBkAG8AdAApACkAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBkAG8AdAAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwAC4AMAAuADAALgAwAFwAIgAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMgA4AC4AMAAuADAALgAwAFwAIgAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAOQAyAC4AMAAuADAALgAwAFwAIgAsACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIAMgA0AC4AMAAuADAALgAwAFwAIgAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANAAwAC4AMAAuADAALgAwAFwAIgAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANAA4AC4AMAAuADAALgAwAFwAIgAsACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQAyAC4AMAAuADAALgAwAFwAIgAsACAANgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA0AC4AMAAuADAALgAwAFwAIgAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMAAuADAALgAwAFwAIgAsACAAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMQAyADgALgAwAC4AMABcACIALAAgADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADEAOQAyAC4AMAAuADAAXAAiACwAIAAxADAALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIAMgA0AC4AMAAuADAAXAAiACwAIAAxADEALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANAAwAC4AMAAuADAAXAAiACwAIAAxADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANAA4AC4AMAAuADAAXAAiACwAIAAxADMALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQAyAC4AMAAuADAAXAAiACwAIAAxADQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA0AC4AMAAuADAAXAAiACwAIAAxADUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMAAuADAAXAAiACwAIAAxADYALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMQAyADgALgAwAFwAIgAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADEAOQAyAC4AMABcACIALAAgADEAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADIANAAuADAAXAAiACwAIAAxADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA0ADAALgAwAFwAIgAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANAA4AC4AMABcACIALAAgADIAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUAMgAuADAAXAAiACwAIAAyADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADQALgAwAFwAIgAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMABcACIALAAgADIANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADEAMgA4AFwAIgAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMQA5ADIAXAAiACwAIAAyADYALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADIANABcACIALAAgADIANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANAAwAFwAIgAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA0ADgAXAAiACwAIAAyADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADUAMgBcACIALAAgADMAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANQA0AFwAIgAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA1ADUAXAAiACwAIAAzADIALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAGUAdABtAGEAcwBrACAAaQBuAHQAbwAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAEkAUAAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAAoADAAIAB0AG8AIAAzADIAKQAuAFwAbgAgACoAIABwAGYAeABkAGUAYwA6ACAAYQAgADMAMgAgAGIAaQB0ACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIANgA0AFwAIgApACkAIAA9AD0APgAgADIANwBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AXwBkAGUAYwAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgAwAFwAIgApACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIAMgAxADQANwA0ADgAMwA2ADQAOABcACIAKQAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgAzADcANQA4ADAAOQA2ADMAOAA0AFwAIgApACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMQA2ADAANwA0ADkANQA2ADgAXAAiACkALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAMgA3ADgANQA4ADQAMwAyAFwAIgApACwAIAA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADYAMQA0ADEAMgA4ADYANABcACIAKQAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMgA3ADgAMQA5ADAAMAA4ADAAXAAiACkALAAgADgALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOAA2ADUANwA4ADYAOAA4AFwAIgApACwAIAA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMAA3ADcAMgA5ADkAMgBcACIAKQAsACAAMQAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMgA4ADcAMAAxADQANABcACIAKQAsACAAMQAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMwA5ADEAOAA3ADIAMABcACIAKQAsACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA0ADQAMwAwADAAOABcACIAKQAsACAAMQAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA3ADAANQAxADUAMgBcACIAKQAsACAAMQA0ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA4ADMANgAyADIANABcACIAKQAsACAAMQA1ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADAAMQA3ADYAMABcACIAKQAsACAAMQA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADMANAA1ADIAOABcACIAKQAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADUAMAA5ADEAMgBcACIAKQAsACAAMQA4ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADUAOQAxADAANABcACIAKQAsACAAMQA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYAMwAyADAAMABcACIAKQAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANQAyADQAOABcACIAKQAsACAAMgAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANgAyADcAMgBcACIAKQAsACAAMgAyACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANgA3ADgANABcACIAKQAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAwADQAMABcACIAKQAsACAAMgA0ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAxADYAOABcACIAKQAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADMAMgBcACIAKQAsACAAMgA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADYANABcACIAKQAsACAAMgA3ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADgAMABcACIAKQAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADgAOABcACIAKQAsACAAMgA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkAMgBcACIAKQAsACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANABcACIAKQAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANQBcACIAKQAsACAAMwAyACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBpAHAALgBmAHIAbwBtAF8AcAByAGUAZgBpAHgAbABlAG4AIgAsACIAaQBwAC4AZgByAG8AbQBfAG4AZQB0AG0AYQBzAGsAIgAsACIAaQBwAC4AZgByAG8AbQBfAGgAbwBzAHQAbQBhAHMAawAiACwAIgBpAHAALgBmAHIAbwBtAF8AYwBsAGEAcwBzAGYAdQBsACIALAAiAGkAcAAuAHcAaQB0AGgAXwBuAGUAdABtAGEAcwBrACIALAAiAGkAcAAuAHcAaQB0AGgAXwBoAG8AcwB0AG0AYQBzAGsAIgAsACIAaQBwAC4AcABhAGQAZABlAGQAIgAsACIAaQBwAC4AaABvAHMAdABfAG8AYwB0AGUAdABzACIALAAiAGkAcAAuAGkAcABfAGkAbgBfAGIAaQBuAGEAcgB5ACIALAAiAGkAcAAuAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAiACwAIgBpAHAALgBoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAiACwAIgBpAHAALgBpAHAAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACIALAAiAGkAcAAuAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACIALAAiAGkAcAAuAGgAbwBzAHQAbQBhAHMAawBfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIgAsACIAaQBwAC4AYwBoAGUAYwBrAGUAZAAiACwAIgBpAHAALgBpAHAAIgAsACIAaQBwAC4AcAByAGUAZgBpAHgAbABlAG4AIgAsACIAaQBwAC4AbgBlAHQAbQBhAHMAawAiACwAIgBpAHAALgBoAG8AcwB0AG0AYQBzAGsAIgAsACIAaQBwAC4AbgBlAHQAdwBvAHIAawBfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AYgByAG8AYQBkAGMAYQBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAG4AdQBtAF8AYQBkAGQAcgBlAHMAcwBlAHMAIgAsACIAaQBwAC4AZgBpAHIAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AbABhAHMAdABfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAHAAcgBlAHYAaQBvAHUAcwBfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAG4AZQB4AHQAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBpAG4AZABlAHgAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBwAHIAZQB2AGkAbwB1AHMAXwBzAHUAYgBuAGUAdAAiACwAIgBpAHAALgBuAGUAeAB0AF8AcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AaQBuAGQAZQB4AF8AcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AcwB1AGIAbgBlAHQAcwAiACwAIgBpAHAALgBoAG8AcwB0AHMAIgAsACIAaQBwAC4AcwB1AGIAbgBlAHQAXwBvAGYAIgAsACIAaQBwAC4AcwB1AHAAZQByAG4AZQB0AF8AbwBmACIALAAiAGkAcAAuAHMAdQBwAGUAcgBuAGUAdABfAGQAaQBmAGYAIgAsACIAaQBwAC4AcwB1AHAAZQByAG4AZQB0AF8AbgBlAHcAXwBwAHIAZQBmAGkAeAAiACwAIgBpAHAALgBzAG8AcgB0ACIALAAiAGkAcAAuAGYAaQBsAHQAZQByAF8AaQBuAGMAbAB1AGQAZQAiACwAIgBpAHAALgBmAGkAbAB0AGUAcgBfAGUAeABjAGwAdQBkAGUAIgAsACIAaQBwAC4AbwBmAGYAcwBlAHQAIgAsACIAaQBwAC4AbwBjAHQAZQB0AF8AbwBmAGYAcwBlAHQAIgAsACIAaQBwAC4AaQBzAF8AcgBmAGMAMQA5ADEAOAAiACwAIgBpAHAALgBpAHMAXwBwAHIAaQB2AGEAdABlACIALAAiAGkAcAAuAGkAcwBfAGcAbABvAGIAYQBsACIALAAiAGkAcAAuAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAiACwAIgBpAHAALgBpAHMAXwByAGUAcwBlAHIAdgBlAGQAIgAsACIAaQBwAC4AaQBzAF8AbQB1AGwAdABpAGMAYQBzAHQAIgAsACIAaQBwAC4AaQBzAF8AbABvAG8AcABiAGEAYwBrACIALAAiAGkAcAAuAGkAcwBfAGwAaQBuAGsAXwBsAG8AYwBhAGwAIgAsACIAaQBwAC4AcgBlAHYAZQByAHMAZQBfAHAAbwBpAG4AdABlAHIAIgAsACIAaQBwAC4AQgBJAFQATgBPAFQAIgAsACIAaQBwAC4AXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AXwBmAGkAcgBzAHQAaABvAHMAdAAiACwAIgBpAHAALgBfAGwAYQBzAHQAaABvAHMAdAAiACwAIgBpAHAALgBfAHAAcgBlAHYAaQBvAHUAcwBzAHUAYgBuAGUAdAAiACwAIgBpAHAALgBfAG4AZQB4AHQAcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AXwBkAG8AdAAyAGQAZQBjACIALAAiAGkAcAAuAF8AZABlAGMAMgBkAG8AdAAiACwAIgBpAHAALgBfAGQAbwB0ADIAYgBpAG4AIgAsACIAaQBwAC4AXwBiAGkAbgAyAGQAbwB0ACIALAAiAGkAcAAuAF8AYgBpAG4AMgBkAGUAYwAiACwAIgBpAHAALgBfAGQAZQBjADIAYgBpAG4AIgAsACIAaQBwAC4AXwBwAGYAeAAyAGIAaQBuACIALAAiAGkAcAAuAF8AYgBpAG4AMgBwAGYAeAAiACwAIgBpAHAALgBfAHAAZgB4ADIAZABlAGMAIgAsACIAaQBwAC4AXwBkAG8AdAAyAHAAZgB4ACIALAAiAGkAcAAuAF8AZABlAGMAMgBwAGYAeAAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgCjACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAGcAYgAiAH0AfQA=</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
